--- a/Resultados/Mercado mundial - Esparragos.xlsx
+++ b/Resultados/Mercado mundial - Esparragos.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="China, mainland" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Peru" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Mexico" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Germany" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Italy" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="China, Continental" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Perú" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="México" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alemania" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Italia" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -227,7 +227,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -307,7 +307,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -407,13 +406,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -433,21 +432,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Mundial'!$B$12:$B$73</f>
+              <f>'Mundial'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Mundial'!$C$12:$C$73</f>
+              <f>'Mundial'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -489,13 +488,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -515,21 +514,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países productores'!$B$12:$B$22</f>
+              <f>'Países productores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países productores'!$C$12:$C$22</f>
+              <f>'Países productores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -571,13 +570,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -597,21 +596,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países exportadores'!$B$12:$B$22</f>
+              <f>'Países exportadores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países exportadores'!$C$12:$C$22</f>
+              <f>'Países exportadores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -653,13 +652,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -679,10 +678,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -735,13 +734,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -761,21 +760,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'China, mainland'!$B$12:$B$73</f>
+              <f>'China, Continental'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'China, mainland'!$C$12:$C$73</f>
+              <f>'China, Continental'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -817,13 +816,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -843,21 +842,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Peru'!$B$12:$B$73</f>
+              <f>'Perú'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Peru'!$C$12:$C$73</f>
+              <f>'Perú'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -899,13 +898,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -925,21 +924,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Mexico'!$B$12:$B$73</f>
+              <f>'México'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Mexico'!$C$12:$C$73</f>
+              <f>'México'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -981,13 +980,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1007,21 +1006,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Germany'!$B$12:$B$73</f>
+              <f>'Alemania'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Germany'!$C$12:$C$73</f>
+              <f>'Alemania'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1063,13 +1062,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1089,21 +1088,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Italy'!$B$12:$B$73</f>
+              <f>'Italia'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Italy'!$C$12:$C$73</f>
+              <f>'Italia'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1145,7 +1144,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1163,26 +1162,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1203,9 +1202,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1215,7 +1214,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1233,26 +1232,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1273,9 +1272,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1285,7 +1284,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1303,26 +1302,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1343,9 +1342,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1355,7 +1354,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1373,26 +1372,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1413,9 +1412,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1425,7 +1424,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1440,9 +1439,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1462,13 +1461,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1477,7 +1476,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1492,9 +1491,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1514,13 +1513,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1529,7 +1528,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1544,9 +1543,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1566,13 +1565,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1581,7 +1580,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1596,9 +1595,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1618,13 +1617,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1633,7 +1632,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1648,9 +1647,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1670,13 +1669,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2011,8 +2010,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2060,7 +2059,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2139,10 +2138,10 @@
         <v>1613070</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>5.3276</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>8593799.26</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>5.3276</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>369693.99</v>
@@ -2161,10 +2160,10 @@
         <v>1606773</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>5.3878</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>8657044.359999999</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>5.3878</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>417847.94</v>
@@ -2183,10 +2182,10 @@
         <v>1597782</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>5.3948</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>8619775.210000001</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>5.3948</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>486889.88</v>
@@ -2205,10 +2204,10 @@
         <v>1581458</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>5.403899999999999</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>8546052.189999999</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>5.403899999999999</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>427104.49</v>
@@ -2227,10 +2226,10 @@
         <v>1559955</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>5.5484</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>8655291.029999999</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>5.5484</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>437815.14</v>
@@ -2249,10 +2248,10 @@
         <v>1548927</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>5.501399999999999</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>8521289.380000001</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>5.501399999999999</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>433900.61</v>
@@ -2271,10 +2270,10 @@
         <v>1546068</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>5.4481</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>8423167.34</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>5.4481</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>393303.63</v>
@@ -2293,10 +2292,10 @@
         <v>1562337</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>5.2912</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>8266567.51</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>5.2912</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>373627.73</v>
@@ -2315,10 +2314,10 @@
         <v>1528606</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>5.680899999999999</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>8683909.210000001</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>5.680899999999999</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>352588.03</v>
@@ -2337,10 +2336,10 @@
         <v>1469188</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>5.3972</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>7929445.74</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>5.3972</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>386779.41</v>
@@ -2359,10 +2358,10 @@
         <v>1463607</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>5.4221</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>7935796.26</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>5.4221</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>336038</v>
@@ -2381,10 +2380,10 @@
         <v>1483527</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>5.583399999999999</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>8283095</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>5.583399999999999</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>350303</v>
@@ -2403,10 +2402,10 @@
         <v>1454758</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>5.6306</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>8191163.66</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>5.6306</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>330363</v>
@@ -2425,10 +2424,10 @@
         <v>1426731</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>5.2481</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>7487630.97</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>5.2481</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>322292</v>
@@ -2447,10 +2446,10 @@
         <v>1417284</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>5.1964</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>7364717.59</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>5.1964</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>300490</v>
@@ -2469,10 +2468,10 @@
         <v>1412701</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>5.1084</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>7216644.32</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>5.1084</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>298339</v>
@@ -2491,10 +2490,10 @@
         <v>1398248</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>5.0735</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>7094036.33</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>5.0735</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>267917</v>
@@ -2513,10 +2512,10 @@
         <v>1349422</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>5.1374</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>6932564.91</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>5.1374</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>260134</v>
@@ -2535,10 +2534,10 @@
         <v>1312750</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>5.1085</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>6706236.9</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>5.1085</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>244329</v>
@@ -2557,10 +2556,10 @@
         <v>1306204</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>5.069</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>6621192.04</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>5.069</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>218435</v>
@@ -2579,10 +2578,10 @@
         <v>1231864</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>5.091399999999999</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>6271953.38</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>5.091399999999999</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>226116</v>
@@ -2601,10 +2600,10 @@
         <v>1198305</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>4.7999</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>5751719.03</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>4.7999</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>220458</v>
@@ -2623,10 +2622,10 @@
         <v>1115810</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>4.4514</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>4966941.74</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>4.4514</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>202458.05</v>
@@ -2645,10 +2644,10 @@
         <v>1064960</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>4.357699999999999</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>4640819.28</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>4.357699999999999</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>193131</v>
@@ -2667,10 +2666,10 @@
         <v>928753</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>4.2648</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>3960944.41</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>4.2648</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>187525.16</v>
@@ -2689,10 +2688,10 @@
         <v>870236</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>4.1998</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>3654790.74</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>4.1998</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>164043.42</v>
@@ -2711,10 +2710,10 @@
         <v>844491</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>4.1463</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>3501494.53</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>4.1463</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>155195.98</v>
@@ -2733,10 +2732,10 @@
         <v>832584</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>3.9897</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>3321796.34</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>3.9897</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>143601.01</v>
@@ -2755,10 +2754,10 @@
         <v>756810</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>3.9717</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>3005813.03</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>3.9717</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>137999.02</v>
@@ -2777,10 +2776,10 @@
         <v>715397</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>4.0841</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>2921779.89</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>4.0841</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>136893</v>
@@ -2799,10 +2798,10 @@
         <v>698132</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>3.8668</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>2699509.54</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>3.8668</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>128050</v>
@@ -2821,10 +2820,10 @@
         <v>597171</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>3.732</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>2228651.58</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>3.732</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>116400</v>
@@ -2843,10 +2842,10 @@
         <v>620357</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>3.4483</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>2139182.35</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>3.4483</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>104104</v>
@@ -2865,10 +2864,10 @@
         <v>580038</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>3.4702</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>2012820</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>3.4702</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>92922</v>
@@ -2887,10 +2886,10 @@
         <v>545587</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>3.3672</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>1837078</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>3.3672</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>86141</v>
@@ -2909,10 +2908,10 @@
         <v>509471</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>3.4518</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>1758617</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>3.4518</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>79590</v>
@@ -2931,10 +2930,10 @@
         <v>494604</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>3.5052</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>1733698</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>3.5052</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>61998</v>
@@ -2953,10 +2952,10 @@
         <v>462386</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>3.4451</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>1592985</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>3.4451</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>48733</v>
@@ -2975,10 +2974,10 @@
         <v>421736</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>3.5237</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>1486065</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>3.5237</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>47462</v>
@@ -2997,10 +2996,10 @@
         <v>419972</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>3.4174</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>1435224</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>3.4174</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>35339</v>
@@ -3019,10 +3018,10 @@
         <v>410374</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>3.401</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>1395671</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>3.401</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>31011</v>
@@ -3041,10 +3040,10 @@
         <v>411460</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>3.3777</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>1389783</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>3.3777</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>27091</v>
@@ -3063,10 +3062,10 @@
         <v>381131</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>3.5543</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>1354656</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>3.5543</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>27039</v>
@@ -3085,10 +3084,10 @@
         <v>359086</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>3.4891</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>1252898</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>3.4891</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>23617</v>
@@ -3107,10 +3106,10 @@
         <v>364866</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>3.5801</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>1306260</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>3.5801</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>21874</v>
@@ -3129,10 +3128,10 @@
         <v>369709</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>3.4215</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>1264951</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>3.4215</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>19458</v>
@@ -3151,10 +3150,10 @@
         <v>347258</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>3.6646</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>1272569</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>3.6646</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>17842</v>
@@ -3173,10 +3172,10 @@
         <v>339821</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>3.7026</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>1258216</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>3.7026</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>20381</v>
@@ -3195,10 +3194,10 @@
         <v>347258</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>3.5224</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>1223169</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>3.5224</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>20695</v>
@@ -3217,10 +3216,10 @@
         <v>339701</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>3.6882</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>1252871</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>3.6882</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>20900</v>
@@ -3239,10 +3238,10 @@
         <v>346903</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>3.5546</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>1233105</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>3.5546</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>20978</v>
@@ -3261,10 +3260,10 @@
         <v>322568</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>3.5583</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>1147798</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>3.5583</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>20866</v>
@@ -3283,10 +3282,10 @@
         <v>324828</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>3.7926</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>1231942</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>3.7926</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>20184</v>
@@ -3305,10 +3304,10 @@
         <v>294013</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>3.7875</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>1113572</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>3.7875</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>20588</v>
@@ -3327,10 +3326,10 @@
         <v>393344</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>3.5558</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>1398664</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>3.5558</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>17502</v>
@@ -3349,10 +3348,10 @@
         <v>395218</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>3.3621</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>1328756</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>3.3621</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>16499</v>
@@ -3371,10 +3370,10 @@
         <v>408340</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>2.9928</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>1222070</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>2.9928</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>14626</v>
@@ -3392,10 +3391,10 @@
         <v>410685</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>3.0366</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>1247071</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>3.0366</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>15996</v>
@@ -3413,10 +3412,10 @@
         <v>421702</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>1228842</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>2.914</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>15717</v>
@@ -3434,10 +3433,10 @@
         <v>419836</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>2.8763</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>1207568</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>2.8763</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>13254</v>
@@ -3455,10 +3454,10 @@
         <v>445013</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>2.9011</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>1291043</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>2.9011</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>12138</v>
@@ -3476,10 +3475,10 @@
         <v>496849</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>2.7767</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>1379606</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>2.7767</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>12000</v>
@@ -3497,10 +3496,10 @@
         <v>640003</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>2.6495</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>1695701</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>2.6495</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>13883</v>
@@ -3787,8 +3786,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3883,7 +3882,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>China, mainland</t>
+          <t>China, Continental</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -3897,7 +3896,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -3911,7 +3910,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>México</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -3925,7 +3924,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Alemania</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -3939,7 +3938,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Italia</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3953,7 +3952,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>España</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -3967,7 +3966,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -3981,7 +3980,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Francia</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -3995,7 +3994,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Japón</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4009,7 +4008,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Tailandia</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4117,7 +4116,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4216,7 +4215,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>México</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4230,7 +4229,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4244,7 +4243,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4258,7 +4257,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>España</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4272,7 +4271,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Netherlands (Kingdom of the)</t>
+          <t>Países Bajos (Reino de los)</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4286,7 +4285,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Italia</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4300,7 +4299,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Grecia</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4314,7 +4313,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Francia</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4328,7 +4327,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Alemania</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4342,7 +4341,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Canadá</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4538,8 +4537,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4634,7 +4633,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4648,7 +4647,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Alemania</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4662,7 +4661,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Canadá</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4676,7 +4675,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>España</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4690,7 +4689,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>United Kingdom of Great Britain and Northern Ireland</t>
+          <t>Reino Unido de Gran Bretaña e Irlanda del Norte</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4704,7 +4703,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Francia</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4718,7 +4717,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Netherlands (Kingdom of the)</t>
+          <t>Países Bajos (Reino de los)</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4732,7 +4731,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Suiza</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4746,7 +4745,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Bélgica</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4760,7 +4759,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Japón</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4774,43 +4773,35 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Otros</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>284.3</v>
+        <v>38347.92999999999</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.0007690143948512661</v>
+        <v>0.1037288434145224</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C23" s="29" t="n">
-        <v>38063.63</v>
+        <v>369693.99</v>
       </c>
       <c r="D23" s="31" t="n">
-        <v>0.1029598290196711</v>
+        <v>1</v>
       </c>
       <c r="E23" s="29" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="29" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C24" s="29" t="n">
-        <v>369693.99</v>
-      </c>
-      <c r="D24" s="31" t="n">
-        <v>1</v>
-      </c>
+      <c r="B24" s="29" t="n"/>
+      <c r="C24" s="29" t="n"/>
+      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
     </row>
     <row r="25">
@@ -4820,59 +4811,58 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="29" t="n"/>
+      <c r="B26" s="15" t="n"/>
       <c r="C26" s="37" t="n"/>
-      <c r="D26" s="31" t="n"/>
-      <c r="E26" s="29" t="n"/>
+      <c r="D26" s="34" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="15" t="n"/>
-      <c r="C27" s="38" t="n"/>
+      <c r="C27" s="37" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="15" t="n"/>
-      <c r="C28" s="38" t="n"/>
+      <c r="C28" s="37" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="15" t="n"/>
-      <c r="C29" s="38" t="n"/>
+      <c r="C29" s="37" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="15" t="n"/>
-      <c r="C30" s="38" t="n"/>
+      <c r="C30" s="37" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="15" t="n"/>
-      <c r="C31" s="38" t="n"/>
+      <c r="C31" s="37" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="15" t="n"/>
-      <c r="C32" s="38" t="n"/>
+      <c r="C32" s="37" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="15" t="n"/>
-      <c r="C33" s="38" t="n"/>
+      <c r="C33" s="37" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="15" t="n"/>
-      <c r="C34" s="38" t="n"/>
+      <c r="C34" s="37" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="15" t="n"/>
-      <c r="C35" s="38" t="n"/>
+      <c r="C35" s="37" t="n"/>
       <c r="D35" s="36" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="15" t="n"/>
-      <c r="C36" s="38" t="n"/>
+      <c r="C36" s="37" t="n"/>
       <c r="D36" s="36" t="n"/>
     </row>
   </sheetData>
@@ -4942,7 +4932,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5021,10 +5011,10 @@
         <v>1462437</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>5.0862</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>7438232.87</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>5.0862</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>13.22</v>
@@ -5043,10 +5033,10 @@
         <v>1452788</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>5.1366</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>7462348.61</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>5.1366</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -5063,10 +5053,10 @@
         <v>1443072</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>5.158</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>7443307.73</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>5.158</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>4.8</v>
@@ -5085,10 +5075,10 @@
         <v>1427408</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>5.190600000000001</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>7409042.28</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>5.190600000000001</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>10.48</v>
@@ -5107,10 +5097,10 @@
         <v>1407103</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>5.3548</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>7534695.82</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>5.3548</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>104.87</v>
@@ -5129,10 +5119,10 @@
         <v>1395438</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>5.293100000000001</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>7386185.09</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>5.293100000000001</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>91.67</v>
@@ -5151,10 +5141,10 @@
         <v>1396626</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>5.2314</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>7306245.93</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>5.2314</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>11.79</v>
@@ -5173,10 +5163,10 @@
         <v>1418275</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>5.0785</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>7202684.6</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>5.0785</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>15.85</v>
@@ -5195,10 +5185,10 @@
         <v>1390592</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>5.5122</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>7665155.11</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>5.5122</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>11.76</v>
@@ -5217,10 +5207,10 @@
         <v>1335107</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>5.2003</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>6942898.7</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>5.2003</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>2.38</v>
@@ -5239,10 +5229,10 @@
         <v>1330000</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>5.263199999999999</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>7000000</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>5.263199999999999</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>5</v>
@@ -5261,10 +5251,10 @@
         <v>1350000</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>5.4444</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>7350000</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>5.4444</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>15</v>
@@ -5283,10 +5273,10 @@
         <v>1320000</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>5.4924</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>7250000</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>5.4924</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>2</v>
@@ -5305,10 +5295,10 @@
         <v>1280000</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>5.1563</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>6600000</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>5.1563</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>10</v>
@@ -5327,10 +5317,10 @@
         <v>1270000</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>5.1181</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>6500000</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>5.1181</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>41</v>
@@ -5349,10 +5339,10 @@
         <v>1265000</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>5.0198</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>6350000</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>5.0198</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>128</v>
@@ -5371,10 +5361,10 @@
         <v>1250000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>6250000</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>5</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>69</v>
@@ -5393,10 +5383,10 @@
         <v>1200000</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>5.0833</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>6100000</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>5.0833</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>30</v>
@@ -5415,10 +5405,10 @@
         <v>1160000</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>5.0862</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>5900000</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>5.0862</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -5437,10 +5427,10 @@
         <v>1150000</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>5.0435</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>5800000</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>5.0435</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>0</v>
@@ -5459,10 +5449,10 @@
         <v>1080000</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>5.0926</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>5500000</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>5.0926</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>9</v>
@@ -5481,10 +5471,10 @@
         <v>1040000</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>4.8077</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>5000000</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>4.8077</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>0</v>
@@ -5503,10 +5493,10 @@
         <v>960000</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>4.375</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>4200000</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>4.375</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>1</v>
@@ -5525,10 +5515,10 @@
         <v>910000</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>4.285699999999999</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>3900000</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>4.285699999999999</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>0</v>
@@ -5547,10 +5537,10 @@
         <v>780000</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>4.1667</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>3250000</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>4.1667</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="n">
@@ -5567,10 +5557,10 @@
         <v>725000</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>4.137899999999999</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>3000000</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>4.137899999999999</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="n">
@@ -5587,10 +5577,10 @@
         <v>700000</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>4.0714</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>2850000</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>4.0714</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="n">
@@ -5607,10 +5597,10 @@
         <v>680000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>3.9706</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>2700000</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>3.9706</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>1</v>
@@ -5629,10 +5619,10 @@
         <v>610000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>3.9344</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>2400000</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>3.9344</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>2</v>
@@ -5651,10 +5641,10 @@
         <v>570000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>4.0351</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>2300000</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>4.0351</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>2</v>
@@ -5673,10 +5663,10 @@
         <v>550000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>3.8182</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>2100000</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>3.8182</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>6</v>
@@ -5695,10 +5685,10 @@
         <v>450000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>3.6667</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>1650000</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>3.6667</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>3</v>
@@ -5717,10 +5707,10 @@
         <v>470000</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>3.4043</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>1600000</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>3.4043</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -5739,10 +5729,10 @@
         <v>430000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>3.3767</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>1452000</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>3.3767</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -5761,10 +5751,10 @@
         <v>400000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>1320000</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>3.3</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -5783,10 +5773,10 @@
         <v>370000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>3.4865</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>1290000</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>3.4865</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -5805,10 +5795,10 @@
         <v>360000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>1260000</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>3.5</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -5827,10 +5817,10 @@
         <v>330000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>3.4848</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>1150000</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>3.4848</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -5849,10 +5839,10 @@
         <v>300000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>1056000</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>3.52</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -5871,10 +5861,10 @@
         <v>300000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>1050000</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>3.5</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -5893,10 +5883,10 @@
         <v>300000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>3.4933</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>1048000</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>3.4933</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -5915,10 +5905,10 @@
         <v>300000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>3.4667</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>1040000</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>3.4667</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -5937,10 +5927,10 @@
         <v>270000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>3.5926</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>970000</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>3.5926</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -5959,10 +5949,10 @@
         <v>250000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>850000</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>3.4</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -5981,10 +5971,10 @@
         <v>255000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>3.5098</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>895000</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>3.5098</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -6003,10 +5993,10 @@
         <v>260000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>3.3269</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>865000</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>3.3269</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -6025,10 +6015,10 @@
         <v>230000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>3.6522</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>840000</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>3.6522</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -6047,10 +6037,10 @@
         <v>220000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>3.6818</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>810000</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>3.6818</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -6069,10 +6059,10 @@
         <v>220000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>3.6818</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>810000</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>3.6818</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -6091,10 +6081,10 @@
         <v>210000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>3.6905</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>775000</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>3.6905</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -6113,10 +6103,10 @@
         <v>220000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>770000</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>3.5</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -6135,10 +6125,10 @@
         <v>195000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>3.5385</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>690000</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>3.5385</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -6157,10 +6147,10 @@
         <v>200000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>750000</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>3.75</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -6179,10 +6169,10 @@
         <v>174000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>3.7356</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>650000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>3.7356</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -6201,10 +6191,10 @@
         <v>275000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>3.5455</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>975000</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>3.5455</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -6223,10 +6213,10 @@
         <v>275000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>3.2909</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>905000</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>3.2909</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -6245,10 +6235,10 @@
         <v>280000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>840000</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>3</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -6266,10 +6256,10 @@
         <v>280000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>2.9643</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>830000</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>2.9643</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -6287,10 +6277,10 @@
         <v>290000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>2.931</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>850000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>2.931</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -6308,10 +6298,10 @@
         <v>290000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>2.7931</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>810000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>2.7931</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -6329,10 +6319,10 @@
         <v>320000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>2.8281</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>905000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>2.8281</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -6350,10 +6340,10 @@
         <v>375000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>2.6933</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>1010000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>2.6933</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -6371,10 +6361,10 @@
         <v>520000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>2.5385</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>1320000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>2.5385</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -6710,7 +6700,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6789,16 +6779,17 @@
         <v>29817</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>11.964</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>356728.51</v>
       </c>
-      <c r="E12" s="29" t="n">
-        <v>11.964</v>
-      </c>
-      <c r="F12" s="29" t="inlineStr"/>
+      <c r="F12" s="29" t="n">
+        <v>97874.75</v>
+      </c>
       <c r="G12" s="29" t="n">
-        <v>97874.75</v>
-      </c>
-      <c r="H12" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J12" s="30" t="n"/>
     </row>
     <row r="13">
@@ -6809,16 +6800,17 @@
         <v>32700</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>11.5366</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>377246</v>
       </c>
-      <c r="E13" s="29" t="n">
-        <v>11.5366</v>
-      </c>
-      <c r="F13" s="29" t="inlineStr"/>
+      <c r="F13" s="29" t="n">
+        <v>127763.01</v>
+      </c>
       <c r="G13" s="29" t="n">
-        <v>127763.01</v>
-      </c>
-      <c r="H13" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J13" s="30" t="n"/>
     </row>
     <row r="14">
@@ -6829,16 +6821,17 @@
         <v>32027</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>11.5263</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>369153</v>
       </c>
-      <c r="E14" s="29" t="n">
-        <v>11.5263</v>
-      </c>
-      <c r="F14" s="29" t="inlineStr"/>
+      <c r="F14" s="29" t="n">
+        <v>135732.73</v>
+      </c>
       <c r="G14" s="29" t="n">
-        <v>135732.73</v>
-      </c>
-      <c r="H14" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J14" s="30" t="n"/>
     </row>
     <row r="15">
@@ -6849,16 +6842,17 @@
         <v>33241</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>11.1119</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>369370</v>
       </c>
-      <c r="E15" s="29" t="n">
-        <v>11.1119</v>
-      </c>
-      <c r="F15" s="29" t="inlineStr"/>
+      <c r="F15" s="29" t="n">
+        <v>125385.87</v>
+      </c>
       <c r="G15" s="29" t="n">
-        <v>125385.87</v>
-      </c>
-      <c r="H15" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J15" s="30" t="n"/>
     </row>
     <row r="16">
@@ -6869,16 +6863,17 @@
         <v>31700</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>11.2551</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>356789.56</v>
       </c>
-      <c r="E16" s="29" t="n">
-        <v>11.2551</v>
-      </c>
-      <c r="F16" s="29" t="inlineStr"/>
+      <c r="F16" s="29" t="n">
+        <v>133875.74</v>
+      </c>
       <c r="G16" s="29" t="n">
-        <v>133875.74</v>
-      </c>
-      <c r="H16" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J16" s="30" t="n"/>
     </row>
     <row r="17">
@@ -6889,16 +6884,17 @@
         <v>31005</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>11.6313</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>360630.14</v>
       </c>
-      <c r="E17" s="29" t="n">
-        <v>11.6313</v>
-      </c>
-      <c r="F17" s="29" t="inlineStr"/>
+      <c r="F17" s="29" t="n">
+        <v>132854.11</v>
+      </c>
       <c r="G17" s="29" t="n">
-        <v>132854.11</v>
-      </c>
-      <c r="H17" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J17" s="30" t="n"/>
     </row>
     <row r="18">
@@ -6909,16 +6905,17 @@
         <v>32365</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>11.8368</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>383098</v>
       </c>
-      <c r="E18" s="29" t="n">
-        <v>11.8368</v>
-      </c>
-      <c r="F18" s="29" t="inlineStr"/>
+      <c r="F18" s="29" t="n">
+        <v>115427.41</v>
+      </c>
       <c r="G18" s="29" t="n">
-        <v>115427.41</v>
-      </c>
-      <c r="H18" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J18" s="30" t="n"/>
     </row>
     <row r="19">
@@ -6929,16 +6926,17 @@
         <v>31967</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>11.8343</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>378305.79</v>
       </c>
-      <c r="E19" s="29" t="n">
-        <v>11.8343</v>
-      </c>
-      <c r="F19" s="29" t="inlineStr"/>
+      <c r="F19" s="29" t="n">
+        <v>123291.58</v>
+      </c>
       <c r="G19" s="29" t="n">
-        <v>123291.58</v>
-      </c>
-      <c r="H19" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J19" s="30" t="n"/>
     </row>
     <row r="20">
@@ -6949,16 +6947,17 @@
         <v>33870</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>10.8955</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>369032</v>
       </c>
-      <c r="E20" s="29" t="n">
-        <v>10.8955</v>
-      </c>
-      <c r="F20" s="29" t="inlineStr"/>
+      <c r="F20" s="29" t="n">
+        <v>129331.88</v>
+      </c>
       <c r="G20" s="29" t="n">
-        <v>129331.88</v>
-      </c>
-      <c r="H20" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J20" s="30" t="n"/>
     </row>
     <row r="21">
@@ -6969,16 +6968,17 @@
         <v>31919</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>11.8331</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>377701</v>
       </c>
-      <c r="E21" s="29" t="n">
-        <v>11.8331</v>
-      </c>
-      <c r="F21" s="29" t="inlineStr"/>
+      <c r="F21" s="29" t="n">
+        <v>133001.54</v>
+      </c>
       <c r="G21" s="29" t="n">
-        <v>133001.54</v>
-      </c>
-      <c r="H21" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J21" s="30" t="n"/>
     </row>
     <row r="22">
@@ -6989,16 +6989,17 @@
         <v>33673</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>11.3784</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>383143.73</v>
       </c>
-      <c r="E22" s="29" t="n">
-        <v>11.3784</v>
-      </c>
-      <c r="F22" s="29" t="inlineStr"/>
+      <c r="F22" s="29" t="n">
+        <v>124462</v>
+      </c>
       <c r="G22" s="29" t="n">
-        <v>124462</v>
-      </c>
-      <c r="H22" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J22" s="30" t="n"/>
     </row>
     <row r="23">
@@ -7009,16 +7010,17 @@
         <v>33063</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>11.3716</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>375977.71</v>
       </c>
-      <c r="E23" s="29" t="n">
-        <v>11.3716</v>
-      </c>
-      <c r="F23" s="29" t="inlineStr"/>
+      <c r="F23" s="29" t="n">
+        <v>118034</v>
+      </c>
       <c r="G23" s="29" t="n">
-        <v>118034</v>
-      </c>
-      <c r="H23" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J23" s="30" t="n"/>
     </row>
     <row r="24">
@@ -7029,16 +7031,17 @@
         <v>33144</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>11.8364</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>392306</v>
       </c>
-      <c r="E24" s="29" t="n">
-        <v>11.8364</v>
-      </c>
-      <c r="F24" s="29" t="inlineStr"/>
+      <c r="F24" s="29" t="n">
+        <v>124504</v>
+      </c>
       <c r="G24" s="29" t="n">
-        <v>124504</v>
-      </c>
-      <c r="H24" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J24" s="30" t="n"/>
     </row>
     <row r="25">
@@ -7049,16 +7052,17 @@
         <v>30896</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>10.8496</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>335209</v>
       </c>
-      <c r="E25" s="29" t="n">
-        <v>10.8496</v>
-      </c>
-      <c r="F25" s="29" t="inlineStr"/>
+      <c r="F25" s="29" t="n">
+        <v>123176</v>
+      </c>
       <c r="G25" s="29" t="n">
-        <v>123176</v>
-      </c>
-      <c r="H25" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J25" s="30" t="n"/>
     </row>
     <row r="26">
@@ -7069,16 +7073,17 @@
         <v>29467</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>10.6519</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>313880</v>
       </c>
-      <c r="E26" s="29" t="n">
-        <v>10.6519</v>
-      </c>
-      <c r="F26" s="29" t="inlineStr"/>
+      <c r="F26" s="29" t="n">
+        <v>122131</v>
+      </c>
       <c r="G26" s="29" t="n">
-        <v>122131</v>
-      </c>
-      <c r="H26" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J26" s="30" t="n"/>
     </row>
     <row r="27">
@@ -7089,16 +7094,17 @@
         <v>29758</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>11.0348</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>328374</v>
       </c>
-      <c r="E27" s="29" t="n">
-        <v>11.0348</v>
-      </c>
-      <c r="F27" s="29" t="inlineStr"/>
+      <c r="F27" s="29" t="n">
+        <v>109808</v>
+      </c>
       <c r="G27" s="29" t="n">
-        <v>109808</v>
-      </c>
-      <c r="H27" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J27" s="30" t="n"/>
     </row>
     <row r="28">
@@ -7109,16 +7115,17 @@
         <v>23547</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>12.0654</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>284103</v>
       </c>
-      <c r="E28" s="29" t="n">
-        <v>12.0654</v>
-      </c>
-      <c r="F28" s="29" t="inlineStr"/>
+      <c r="F28" s="29" t="n">
+        <v>96329</v>
+      </c>
       <c r="G28" s="29" t="n">
-        <v>96329</v>
-      </c>
-      <c r="H28" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J28" s="30" t="n"/>
     </row>
     <row r="29">
@@ -7129,16 +7136,17 @@
         <v>20041</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>12.9711</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>259954</v>
       </c>
-      <c r="E29" s="29" t="n">
-        <v>12.9711</v>
-      </c>
-      <c r="F29" s="29" t="inlineStr"/>
+      <c r="F29" s="29" t="n">
+        <v>92580</v>
+      </c>
       <c r="G29" s="29" t="n">
-        <v>92580</v>
-      </c>
-      <c r="H29" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J29" s="30" t="n"/>
     </row>
     <row r="30">
@@ -7149,16 +7157,17 @@
         <v>18192</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>11.3251</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>206026</v>
       </c>
-      <c r="E30" s="29" t="n">
-        <v>11.3251</v>
-      </c>
-      <c r="F30" s="29" t="inlineStr"/>
+      <c r="F30" s="29" t="n">
+        <v>80021</v>
+      </c>
       <c r="G30" s="29" t="n">
-        <v>80021</v>
-      </c>
-      <c r="H30" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J30" s="30" t="n"/>
     </row>
     <row r="31">
@@ -7169,16 +7178,17 @@
         <v>18912</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>10.1805</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>192533</v>
       </c>
-      <c r="E31" s="29" t="n">
-        <v>10.1805</v>
-      </c>
-      <c r="F31" s="29" t="inlineStr"/>
+      <c r="F31" s="29" t="n">
+        <v>72050</v>
+      </c>
       <c r="G31" s="29" t="n">
-        <v>72050</v>
-      </c>
-      <c r="H31" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J31" s="30" t="n"/>
     </row>
     <row r="32">
@@ -7189,16 +7199,17 @@
         <v>18470</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>10.2653</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>189601</v>
       </c>
-      <c r="E32" s="29" t="n">
-        <v>10.2653</v>
-      </c>
-      <c r="F32" s="29" t="inlineStr"/>
+      <c r="F32" s="29" t="n">
+        <v>67089</v>
+      </c>
       <c r="G32" s="29" t="n">
-        <v>67089</v>
-      </c>
-      <c r="H32" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J32" s="30" t="n"/>
     </row>
     <row r="33">
@@ -7209,16 +7220,17 @@
         <v>18981</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>9.544499999999999</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>181165</v>
       </c>
-      <c r="E33" s="29" t="n">
-        <v>9.544499999999999</v>
-      </c>
-      <c r="F33" s="29" t="inlineStr"/>
+      <c r="F33" s="29" t="n">
+        <v>52784</v>
+      </c>
       <c r="G33" s="29" t="n">
-        <v>52784</v>
-      </c>
-      <c r="H33" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J33" s="30" t="n"/>
     </row>
     <row r="34">
@@ -7229,16 +7241,17 @@
         <v>19038</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>9.668100000000001</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>184061</v>
       </c>
-      <c r="E34" s="29" t="n">
-        <v>9.668100000000001</v>
-      </c>
-      <c r="F34" s="29" t="inlineStr"/>
+      <c r="F34" s="29" t="n">
+        <v>41611</v>
+      </c>
       <c r="G34" s="29" t="n">
-        <v>41611</v>
-      </c>
-      <c r="H34" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J34" s="30" t="n"/>
     </row>
     <row r="35">
@@ -7249,16 +7262,17 @@
         <v>20984</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>8.023100000000001</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>168356</v>
       </c>
-      <c r="E35" s="29" t="n">
-        <v>8.023100000000001</v>
-      </c>
-      <c r="F35" s="29" t="inlineStr"/>
+      <c r="F35" s="29" t="n">
+        <v>37008.73</v>
+      </c>
       <c r="G35" s="29" t="n">
-        <v>37008.73</v>
-      </c>
-      <c r="H35" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J35" s="30" t="n"/>
     </row>
     <row r="36">
@@ -7269,16 +7283,17 @@
         <v>18653</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>9.374499999999999</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>174863</v>
       </c>
-      <c r="E36" s="29" t="n">
-        <v>9.374499999999999</v>
-      </c>
-      <c r="F36" s="29" t="inlineStr"/>
+      <c r="F36" s="29" t="n">
+        <v>26982</v>
+      </c>
       <c r="G36" s="29" t="n">
-        <v>26982</v>
-      </c>
-      <c r="H36" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J36" s="30" t="n"/>
     </row>
     <row r="37">
@@ -7289,16 +7304,17 @@
         <v>15972</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>8.6366</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>137943</v>
       </c>
-      <c r="E37" s="29" t="n">
-        <v>8.6366</v>
-      </c>
-      <c r="F37" s="29" t="inlineStr"/>
+      <c r="F37" s="29" t="n">
+        <v>19683</v>
+      </c>
       <c r="G37" s="29" t="n">
-        <v>19683</v>
-      </c>
-      <c r="H37" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J37" s="30" t="n"/>
     </row>
     <row r="38">
@@ -7309,16 +7325,17 @@
         <v>16619</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>8.7041</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>144654</v>
       </c>
-      <c r="E38" s="29" t="n">
-        <v>8.7041</v>
-      </c>
-      <c r="F38" s="29" t="inlineStr"/>
+      <c r="F38" s="29" t="n">
+        <v>17824</v>
+      </c>
       <c r="G38" s="29" t="n">
-        <v>17824</v>
-      </c>
-      <c r="H38" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J38" s="30" t="n"/>
     </row>
     <row r="39">
@@ -7329,16 +7346,17 @@
         <v>22582</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>5.650399999999999</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>127598</v>
       </c>
-      <c r="E39" s="29" t="n">
-        <v>5.650399999999999</v>
-      </c>
-      <c r="F39" s="29" t="inlineStr"/>
+      <c r="F39" s="29" t="n">
+        <v>15511</v>
+      </c>
       <c r="G39" s="29" t="n">
-        <v>15511</v>
-      </c>
-      <c r="H39" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J39" s="30" t="n"/>
     </row>
     <row r="40">
@@ -7349,16 +7367,17 @@
         <v>20126</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>5.373</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>108138</v>
       </c>
-      <c r="E40" s="29" t="n">
-        <v>5.373</v>
-      </c>
-      <c r="F40" s="29" t="inlineStr"/>
+      <c r="F40" s="29" t="n">
+        <v>13270</v>
+      </c>
       <c r="G40" s="29" t="n">
-        <v>13270</v>
-      </c>
-      <c r="H40" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J40" s="30" t="n"/>
     </row>
     <row r="41">
@@ -7369,16 +7388,17 @@
         <v>17705</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>7.4209</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>131387</v>
       </c>
-      <c r="E41" s="29" t="n">
-        <v>7.4209</v>
-      </c>
-      <c r="F41" s="29" t="inlineStr"/>
+      <c r="F41" s="29" t="n">
+        <v>11350</v>
+      </c>
       <c r="G41" s="29" t="n">
-        <v>11350</v>
-      </c>
-      <c r="H41" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J41" s="30" t="n"/>
     </row>
     <row r="42">
@@ -7389,16 +7409,17 @@
         <v>17671</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>5.5074</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>97322</v>
       </c>
-      <c r="E42" s="29" t="n">
-        <v>5.5074</v>
-      </c>
-      <c r="F42" s="29" t="inlineStr"/>
+      <c r="F42" s="29" t="n">
+        <v>10919</v>
+      </c>
       <c r="G42" s="29" t="n">
-        <v>10919</v>
-      </c>
-      <c r="H42" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J42" s="30" t="n"/>
     </row>
     <row r="43">
@@ -7409,16 +7430,17 @@
         <v>12965</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>5.6827</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>73676</v>
       </c>
-      <c r="E43" s="29" t="n">
-        <v>5.6827</v>
-      </c>
-      <c r="F43" s="29" t="inlineStr"/>
+      <c r="F43" s="29" t="n">
+        <v>6536</v>
+      </c>
       <c r="G43" s="29" t="n">
-        <v>6536</v>
-      </c>
-      <c r="H43" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J43" s="30" t="n"/>
     </row>
     <row r="44">
@@ -7429,16 +7451,17 @@
         <v>10706</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>6.039899999999999</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>64663</v>
       </c>
-      <c r="E44" s="29" t="n">
-        <v>6.039899999999999</v>
-      </c>
-      <c r="F44" s="29" t="inlineStr"/>
+      <c r="F44" s="29" t="n">
+        <v>4538</v>
+      </c>
       <c r="G44" s="29" t="n">
-        <v>4538</v>
-      </c>
-      <c r="H44" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J44" s="30" t="n"/>
     </row>
     <row r="45">
@@ -7449,16 +7472,17 @@
         <v>8997</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>6.4461</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>57996</v>
       </c>
-      <c r="E45" s="29" t="n">
-        <v>6.4461</v>
-      </c>
-      <c r="F45" s="29" t="inlineStr"/>
+      <c r="F45" s="29" t="n">
+        <v>3378</v>
+      </c>
       <c r="G45" s="29" t="n">
-        <v>3378</v>
-      </c>
-      <c r="H45" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
@@ -7469,16 +7493,17 @@
         <v>8256</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>5.075600000000001</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>41904</v>
       </c>
-      <c r="E46" s="29" t="n">
-        <v>5.075600000000001</v>
-      </c>
-      <c r="F46" s="29" t="inlineStr"/>
+      <c r="F46" s="29" t="n">
+        <v>4358</v>
+      </c>
       <c r="G46" s="29" t="n">
-        <v>4358</v>
-      </c>
-      <c r="H46" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
@@ -7489,16 +7514,17 @@
         <v>5938</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>4.4874</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>26646</v>
       </c>
-      <c r="E47" s="29" t="n">
-        <v>4.4874</v>
-      </c>
-      <c r="F47" s="29" t="inlineStr"/>
+      <c r="F47" s="29" t="n">
+        <v>2771</v>
+      </c>
       <c r="G47" s="29" t="n">
-        <v>2771</v>
-      </c>
-      <c r="H47" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
@@ -7509,16 +7535,17 @@
         <v>4802</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>4.2366</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>20344</v>
       </c>
-      <c r="E48" s="29" t="n">
-        <v>4.2366</v>
-      </c>
-      <c r="F48" s="29" t="inlineStr"/>
+      <c r="F48" s="29" t="n">
+        <v>2116</v>
+      </c>
       <c r="G48" s="29" t="n">
-        <v>2116</v>
-      </c>
-      <c r="H48" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
@@ -7529,16 +7556,17 @@
         <v>4119</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>4.0777</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>16796</v>
       </c>
-      <c r="E49" s="29" t="n">
-        <v>4.0777</v>
-      </c>
-      <c r="F49" s="29" t="inlineStr"/>
+      <c r="F49" s="29" t="n">
+        <v>1747</v>
+      </c>
       <c r="G49" s="29" t="n">
-        <v>1747</v>
-      </c>
-      <c r="H49" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
@@ -7549,16 +7577,17 @@
         <v>3108</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>5.1963</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>16150</v>
       </c>
-      <c r="E50" s="29" t="n">
-        <v>5.1963</v>
-      </c>
-      <c r="F50" s="29" t="inlineStr"/>
+      <c r="F50" s="29" t="n">
+        <v>1680</v>
+      </c>
       <c r="G50" s="29" t="n">
-        <v>1680</v>
-      </c>
-      <c r="H50" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
@@ -7569,16 +7598,17 @@
         <v>2497</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>4.5627</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>11393</v>
       </c>
-      <c r="E51" s="29" t="n">
-        <v>4.5627</v>
-      </c>
-      <c r="F51" s="29" t="inlineStr"/>
+      <c r="F51" s="29" t="n">
+        <v>1185</v>
+      </c>
       <c r="G51" s="29" t="n">
-        <v>1185</v>
-      </c>
-      <c r="H51" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
@@ -7589,16 +7619,17 @@
         <v>2443</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>3.6021</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>8800</v>
       </c>
-      <c r="E52" s="29" t="n">
-        <v>3.6021</v>
-      </c>
-      <c r="F52" s="29" t="inlineStr"/>
+      <c r="F52" s="29" t="n">
+        <v>722</v>
+      </c>
       <c r="G52" s="29" t="n">
-        <v>722</v>
-      </c>
-      <c r="H52" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
@@ -7609,16 +7640,17 @@
         <v>2361</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>3.5121</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>8292</v>
       </c>
-      <c r="E53" s="29" t="n">
-        <v>3.5121</v>
-      </c>
-      <c r="F53" s="29" t="inlineStr"/>
+      <c r="F53" s="29" t="n">
+        <v>862</v>
+      </c>
       <c r="G53" s="29" t="n">
-        <v>862</v>
-      </c>
-      <c r="H53" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
@@ -7629,16 +7661,17 @@
         <v>2351</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>3.222</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>7575</v>
       </c>
-      <c r="E54" s="29" t="n">
-        <v>3.222</v>
-      </c>
-      <c r="F54" s="29" t="inlineStr"/>
+      <c r="F54" s="29" t="n">
+        <v>788</v>
+      </c>
       <c r="G54" s="29" t="n">
-        <v>788</v>
-      </c>
-      <c r="H54" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
@@ -7649,16 +7682,17 @@
         <v>1512</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>2.9286</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>4428</v>
       </c>
-      <c r="E55" s="29" t="n">
-        <v>2.9286</v>
-      </c>
-      <c r="F55" s="29" t="inlineStr"/>
+      <c r="F55" s="29" t="n">
+        <v>461</v>
+      </c>
       <c r="G55" s="29" t="n">
-        <v>461</v>
-      </c>
-      <c r="H55" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
@@ -7669,16 +7703,17 @@
         <v>1363</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>5.1937</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>7079</v>
       </c>
-      <c r="E56" s="29" t="n">
-        <v>5.1937</v>
-      </c>
-      <c r="F56" s="29" t="inlineStr"/>
+      <c r="F56" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="G56" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="H56" s="29" t="n"/>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
@@ -7689,16 +7724,17 @@
         <v>976</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>5.6004</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>5466</v>
       </c>
-      <c r="E57" s="29" t="n">
-        <v>5.6004</v>
-      </c>
-      <c r="F57" s="29" t="inlineStr"/>
+      <c r="F57" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="G57" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="H57" s="29" t="n"/>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
@@ -7709,16 +7745,17 @@
         <v>693</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>6.018800000000001</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>4171</v>
       </c>
-      <c r="E58" s="29" t="n">
-        <v>6.018800000000001</v>
-      </c>
-      <c r="F58" s="29" t="inlineStr"/>
+      <c r="F58" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="G58" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="H58" s="29" t="n"/>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
@@ -7729,16 +7766,17 @@
         <v>465</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>5.9032</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>2745</v>
       </c>
-      <c r="E59" s="29" t="n">
-        <v>5.9032</v>
-      </c>
-      <c r="F59" s="29" t="inlineStr"/>
+      <c r="F59" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="G59" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="H59" s="29" t="n"/>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
@@ -7749,16 +7787,17 @@
         <v>460</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>5.9022</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>2715</v>
       </c>
-      <c r="E60" s="29" t="n">
-        <v>5.9022</v>
-      </c>
-      <c r="F60" s="29" t="inlineStr"/>
+      <c r="F60" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="G60" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="H60" s="29" t="n"/>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
@@ -7769,16 +7808,17 @@
         <v>430</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>6.3326</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>2723</v>
       </c>
-      <c r="E61" s="29" t="n">
-        <v>6.3326</v>
-      </c>
-      <c r="F61" s="29" t="inlineStr"/>
+      <c r="F61" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="G61" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="H61" s="29" t="n"/>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
@@ -7789,16 +7829,17 @@
         <v>410</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>6.424399999999999</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>2634</v>
       </c>
-      <c r="E62" s="29" t="n">
-        <v>6.424399999999999</v>
-      </c>
-      <c r="F62" s="29" t="inlineStr"/>
+      <c r="F62" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="G62" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="H62" s="29" t="n"/>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
@@ -7809,16 +7850,17 @@
         <v>555</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>5.645</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>3133</v>
       </c>
-      <c r="E63" s="29" t="n">
-        <v>5.645</v>
-      </c>
-      <c r="F63" s="29" t="inlineStr"/>
+      <c r="F63" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="G63" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="H63" s="29" t="n"/>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
@@ -7829,16 +7871,17 @@
         <v>570</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>4.2912</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>2446</v>
       </c>
-      <c r="E64" s="29" t="n">
-        <v>4.2912</v>
-      </c>
-      <c r="F64" s="29" t="inlineStr"/>
+      <c r="F64" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="G64" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="H64" s="29" t="n"/>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
@@ -7849,16 +7892,17 @@
         <v>820</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>5.897600000000001</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>4836</v>
       </c>
-      <c r="E65" s="29" t="n">
-        <v>5.897600000000001</v>
-      </c>
-      <c r="F65" s="29" t="inlineStr"/>
+      <c r="F65" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="G65" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="H65" s="29" t="n"/>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
@@ -7869,16 +7913,17 @@
         <v>940</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>4.180899999999999</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>3930</v>
       </c>
-      <c r="E66" s="29" t="n">
-        <v>4.180899999999999</v>
-      </c>
-      <c r="F66" s="29" t="inlineStr"/>
+      <c r="F66" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="G66" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="H66" s="29" t="n"/>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
@@ -7889,16 +7934,17 @@
         <v>955</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>4.2764</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>4084</v>
       </c>
-      <c r="E67" s="29" t="n">
-        <v>4.2764</v>
-      </c>
-      <c r="F67" s="29" t="inlineStr"/>
+      <c r="F67" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="G67" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="H67" s="29" t="n"/>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
@@ -7909,16 +7955,17 @@
         <v>1180</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>4.775399999999999</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>5635</v>
       </c>
-      <c r="E68" s="29" t="n">
-        <v>4.775399999999999</v>
-      </c>
-      <c r="F68" s="29" t="inlineStr"/>
+      <c r="F68" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="G68" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="H68" s="29" t="n"/>
     </row>
     <row r="69">
       <c r="B69" s="28" t="n">
@@ -7928,16 +7975,17 @@
         <v>1195</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>4.446</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>5313</v>
       </c>
-      <c r="E69" s="29" t="n">
-        <v>4.446</v>
-      </c>
-      <c r="F69" s="29" t="inlineStr"/>
+      <c r="F69" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="G69" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="H69" s="29" t="n"/>
     </row>
     <row r="70">
       <c r="B70" s="28" t="n">
@@ -7947,16 +7995,17 @@
         <v>1000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>5000</v>
       </c>
-      <c r="E70" s="29" t="n">
-        <v>5</v>
-      </c>
-      <c r="F70" s="29" t="inlineStr"/>
+      <c r="F70" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="G70" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="H70" s="29" t="n"/>
     </row>
     <row r="71">
       <c r="B71" s="28" t="n">
@@ -7966,16 +8015,17 @@
         <v>1000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>5000</v>
       </c>
-      <c r="E71" s="29" t="n">
-        <v>5</v>
-      </c>
-      <c r="F71" s="29" t="inlineStr"/>
+      <c r="F71" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="G71" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="H71" s="29" t="n"/>
     </row>
     <row r="72">
       <c r="B72" s="28" t="n">
@@ -7985,16 +8035,17 @@
         <v>1000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>5000</v>
       </c>
-      <c r="E72" s="29" t="n">
-        <v>5</v>
-      </c>
-      <c r="F72" s="29" t="inlineStr"/>
+      <c r="F72" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="G72" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="H72" s="29" t="n"/>
     </row>
     <row r="73">
       <c r="B73" s="28" t="n">
@@ -8004,16 +8055,17 @@
         <v>1000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>5000</v>
       </c>
-      <c r="E73" s="29" t="n">
-        <v>5</v>
-      </c>
-      <c r="F73" s="29" t="inlineStr"/>
+      <c r="F73" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="G73" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="H73" s="29" t="n"/>
     </row>
     <row r="74">
       <c r="B74" s="28" t="n">
@@ -8023,16 +8075,17 @@
         <v>1000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>5000</v>
       </c>
-      <c r="E74" s="29" t="n">
-        <v>5</v>
-      </c>
-      <c r="F74" s="29" t="inlineStr"/>
+      <c r="F74" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="G74" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="H74" s="29" t="n"/>
     </row>
     <row r="75">
       <c r="B75" s="29" t="n"/>
@@ -8041,7 +8094,6 @@
       <c r="E75" s="29" t="n"/>
       <c r="F75" s="29" t="n"/>
       <c r="G75" s="29" t="n"/>
-      <c r="H75" s="29" t="n"/>
     </row>
     <row r="76">
       <c r="B76" s="29" t="n"/>
@@ -8050,7 +8102,6 @@
       <c r="E76" s="29" t="n"/>
       <c r="F76" s="29" t="n"/>
       <c r="G76" s="29" t="n"/>
-      <c r="H76" s="29" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>
@@ -8360,7 +8411,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8439,10 +8490,10 @@
         <v>37218</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>9.331299999999999</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>347291.22</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>9.331299999999999</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>284.3</v>
@@ -8461,10 +8512,10 @@
         <v>35940</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>9.9566</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>357839.33</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>9.9566</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -8481,10 +8532,10 @@
         <v>34889</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>9.4297</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>328990.33</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>9.4297</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>152.64</v>
@@ -8503,10 +8554,10 @@
         <v>31940</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>9.410600000000001</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>300575.12</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>9.410600000000001</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -8523,10 +8574,10 @@
         <v>30842</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>8.825799999999999</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>272201.57</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>8.825799999999999</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>653.11</v>
@@ -8545,10 +8596,10 @@
         <v>30792</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>9.0181</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>277682.48</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>9.0181</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>751.8099999999999</v>
@@ -8567,10 +8618,10 @@
         <v>26139</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>9.399100000000001</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>245681.46</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>9.399100000000001</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>561.77</v>
@@ -8589,10 +8640,10 @@
         <v>24791</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>8.7478</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>216871.01</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>8.7478</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>687.91</v>
@@ -8611,10 +8662,10 @@
         <v>22232</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>8.909700000000001</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>198075.04</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>8.909700000000001</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>507.47</v>
@@ -8633,10 +8684,10 @@
         <v>20438</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>8.328799999999999</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>170224.55</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>8.328799999999999</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>597.76</v>
@@ -8655,10 +8706,10 @@
         <v>17829</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>7.0908</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>126421</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>7.0908</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>484</v>
@@ -8677,10 +8728,10 @@
         <v>16233</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>7.3794</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>119789</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>7.3794</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>410</v>
@@ -8699,10 +8750,10 @@
         <v>16686</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>6.2669</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>104569.07</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>6.2669</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>613</v>
@@ -8721,10 +8772,10 @@
         <v>16436</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>5.4619</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>89769.42</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>5.4619</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>577</v>
@@ -8743,10 +8794,10 @@
         <v>17000</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>4.2941</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>73000</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>4.2941</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>449</v>
@@ -8765,10 +8816,10 @@
         <v>15800</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>4.3038</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>68000</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>4.3038</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>413</v>
@@ -8787,10 +8838,10 @@
         <v>13900</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>4.3165</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>60000</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>4.3165</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>442</v>
@@ -8809,10 +8860,10 @@
         <v>14260</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>4.181</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>59621</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>4.181</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>545</v>
@@ -8831,10 +8882,10 @@
         <v>13895</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>4.3181</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>60000</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>4.3181</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>408</v>
@@ -8853,10 +8904,10 @@
         <v>13520</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>4.392300000000001</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>59384</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>4.392300000000001</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>261</v>
@@ -8875,10 +8926,10 @@
         <v>14240</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>4.2882</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>61064</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>4.2882</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>232</v>
@@ -8897,10 +8948,10 @@
         <v>14523</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>4.003</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>58135</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>4.003</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>339</v>
@@ -8919,10 +8970,10 @@
         <v>14582</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>4.4259</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>64538</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>4.4259</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>452</v>
@@ -8941,10 +8992,10 @@
         <v>13408</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>3.762</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>50441</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>3.762</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>522.58</v>
@@ -8963,10 +9014,10 @@
         <v>12740</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>4.1049</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>52296</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>4.1049</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>127</v>
@@ -8985,10 +9036,10 @@
         <v>13070</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>3.1553</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>41240</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>3.1553</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>114</v>
@@ -9007,10 +9058,10 @@
         <v>11484</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>3.3072</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>37980</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>3.3072</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>63</v>
@@ -9029,10 +9080,10 @@
         <v>9409</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>2.9982</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>28210</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>2.9982</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>42</v>
@@ -9051,10 +9102,10 @@
         <v>9552</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>3.6235</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>34612</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>3.6235</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>49</v>
@@ -9073,10 +9124,10 @@
         <v>9585</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>3.7079</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>35540</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>3.7079</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>43</v>
@@ -9095,10 +9146,10 @@
         <v>10103</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>3.2139</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>32470</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>3.2139</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>94</v>
@@ -9117,10 +9168,10 @@
         <v>9978</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>3.8617</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>38532</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>3.8617</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>56</v>
@@ -9139,10 +9190,10 @@
         <v>9166</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>4.0848</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>37441</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>4.0848</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>131</v>
@@ -9161,10 +9212,10 @@
         <v>9980</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>4.3306</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>43219</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>4.3306</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>609</v>
@@ -9183,10 +9234,10 @@
         <v>6267</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>4.4838</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>28100</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>4.4838</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>29</v>
@@ -9205,10 +9256,10 @@
         <v>5129</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>5.2377</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>26864</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>5.2377</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>10</v>
@@ -9227,10 +9278,10 @@
         <v>6048</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>5.950600000000001</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>35989</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>5.950600000000001</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -9249,10 +9300,10 @@
         <v>5858</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>4.7783</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>27991</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>4.7783</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -9271,10 +9322,10 @@
         <v>5124</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>4.8041</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>24616</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>4.8041</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -9293,10 +9344,10 @@
         <v>5320</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>3.384</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>18003</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>3.384</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -9315,10 +9366,10 @@
         <v>3106</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>3.8841</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>12064</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>3.8841</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -9337,10 +9388,10 @@
         <v>4287</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>4.900399999999999</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>21008</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>4.900399999999999</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -9359,10 +9410,10 @@
         <v>4573</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>4.730399999999999</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>21632</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>4.730399999999999</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -9381,10 +9432,10 @@
         <v>4174</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>4.7161</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>19685</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>4.7161</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -9403,10 +9454,10 @@
         <v>4002</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>5.1334</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>20544</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>5.1334</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -9425,10 +9476,10 @@
         <v>4273</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>6.275</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>26813</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>6.275</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -9447,10 +9498,10 @@
         <v>10386</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>4.583699999999999</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>47606</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>4.583699999999999</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -9469,10 +9520,10 @@
         <v>9226</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>4.2858</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>39541</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>4.2858</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -9491,10 +9542,10 @@
         <v>7360</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>4.6602</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>34299</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>4.6602</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -9513,10 +9564,10 @@
         <v>6000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>4.6667</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>28000</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>4.6667</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -9535,10 +9586,10 @@
         <v>4500</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>4.6667</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>21000</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>4.6667</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -9557,10 +9608,10 @@
         <v>3000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>4</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>12000</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>4</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -9579,10 +9630,10 @@
         <v>1518</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>4.3834</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>6654</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>4.3834</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -9601,10 +9652,10 @@
         <v>1500</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>4.3333</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>6500</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>4.3333</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -9623,10 +9674,10 @@
         <v>1450</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>4.137899999999999</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>6000</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>4.137899999999999</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -9645,10 +9696,10 @@
         <v>1400</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>3.9286</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>5500</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>3.9286</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -9667,10 +9718,10 @@
         <v>1400</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>3.7857</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>5300</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>3.7857</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -9688,10 +9739,10 @@
         <v>1400</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>3.7143</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>5200</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>3.7143</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -9709,10 +9760,10 @@
         <v>1350</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>3.7778</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>5100</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>3.7778</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -9730,10 +9781,10 @@
         <v>1350</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>3.7778</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>5100</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>3.7778</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -9751,10 +9802,10 @@
         <v>1350</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>3.7037</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>5000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>3.7037</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -9772,10 +9823,10 @@
         <v>1300</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>3.8462</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>5000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>3.8462</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -9793,10 +9844,10 @@
         <v>1300</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>3.8462</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>5000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>3.8462</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -10132,7 +10183,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -10211,10 +10262,10 @@
         <v>20370</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>5.493399999999999</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>111900</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>5.493399999999999</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>19392.64</v>
@@ -10233,10 +10284,10 @@
         <v>21270</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>5.1857</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>110300</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>5.1857</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>19603.83</v>
@@ -10255,10 +10306,10 @@
         <v>22280</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>5.3532</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>119270</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>5.3532</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>27276.11</v>
@@ -10277,10 +10328,10 @@
         <v>22410</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>5.2459</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>117560</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>5.2459</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>22753.84</v>
@@ -10299,10 +10350,10 @@
         <v>22980</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>5.6815</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>130560</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>5.6815</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>24080.92</v>
@@ -10321,10 +10372,10 @@
         <v>23410</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>5.6822</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>133020</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>5.6822</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>24803.56</v>
@@ -10343,10 +10394,10 @@
         <v>23190</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>5.643899999999999</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>130881</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>5.643899999999999</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>25140.11</v>
@@ -10365,10 +10416,10 @@
         <v>22274</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>5.388100000000001</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>120014</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>5.388100000000001</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>24484.15</v>
@@ -10387,10 +10438,10 @@
         <v>20594</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>5.5168</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>113613.3</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>5.5168</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>23577.62</v>
@@ -10409,10 +10460,10 @@
         <v>20122</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>5.669899999999999</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>114090</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>5.669899999999999</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>26061.6</v>
@@ -10431,10 +10482,10 @@
         <v>19634</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>5.2515</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>103107</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>5.2515</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>23696</v>
@@ -10453,10 +10504,10 @@
         <v>19329</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>5.2975</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>102395</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>5.2975</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>26409</v>
@@ -10475,10 +10526,10 @@
         <v>18611</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>5.5589</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>103457</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>5.5589</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>24925</v>
@@ -10497,10 +10548,10 @@
         <v>18794</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>4.9167</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>92404</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>4.9167</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>24437</v>
@@ -10519,10 +10570,10 @@
         <v>18190</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>5.3982</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>98193</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>5.3982</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>22591</v>
@@ -10541,10 +10592,10 @@
         <v>18436</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>5.0257</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>92653</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>5.0257</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>26954</v>
@@ -10563,10 +10614,10 @@
         <v>18610</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>5.0664</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>94285</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>5.0664</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>23606</v>
@@ -10585,10 +10636,10 @@
         <v>18408</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>4.4537</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>81984</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>4.4537</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>25812</v>
@@ -10607,10 +10658,10 @@
         <v>18117</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>4.568</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>82758</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>4.568</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>24731</v>
@@ -10629,10 +10680,10 @@
         <v>16744</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>4.3309</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>72516</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>4.3309</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>25932</v>
@@ -10651,10 +10702,10 @@
         <v>15106</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>4.3252</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>65337</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>4.3252</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>29252</v>
@@ -10673,10 +10724,10 @@
         <v>14222</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>4.0217</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>57196</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>4.0217</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>36432</v>
@@ -10695,10 +10746,10 @@
         <v>12904</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>4.0488</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>52246</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>4.0488</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>35996</v>
@@ -10717,10 +10768,10 @@
         <v>11597</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>50795</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>4.38</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>30720</v>
@@ -10739,10 +10790,10 @@
         <v>11429</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>3.9538</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>45188</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>3.9538</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>40214</v>
@@ -10761,10 +10812,10 @@
         <v>11261</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>4.0416</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>45513</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>4.0416</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>42310</v>
@@ -10783,10 +10834,10 @@
         <v>10901</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>3.7438</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>40811</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>3.7438</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>39545</v>
@@ -10805,10 +10856,10 @@
         <v>10503</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>3.4953</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>36711</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>3.4953</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>42711</v>
@@ -10827,10 +10878,10 @@
         <v>9137</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>3.4825</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>31820</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>3.4825</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>38816</v>
@@ -10849,10 +10900,10 @@
         <v>8250</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>3.3038</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>27256</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>3.3038</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>42961</v>
@@ -10871,10 +10922,10 @@
         <v>8063</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>3.6952</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>29794</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>3.6952</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>37903</v>
@@ -10893,10 +10944,10 @@
         <v>7524</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>3.7735</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>28392</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>3.7735</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>38027</v>
@@ -10915,10 +10966,10 @@
         <v>6253</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>2.4751</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>15477</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>2.4751</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>33825</v>
@@ -10937,10 +10988,10 @@
         <v>7971</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>2.7611</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>22009</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>2.7611</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>29565</v>
@@ -10959,10 +11010,10 @@
         <v>8271</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>2.5513</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>21102</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>2.5513</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>30123</v>
@@ -10981,10 +11032,10 @@
         <v>7985</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>2.4695</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>19719</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>2.4695</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>26326</v>
@@ -11003,10 +11054,10 @@
         <v>6614</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>2.222</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>14696</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>2.222</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>26301</v>
@@ -11025,10 +11076,10 @@
         <v>6705</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>2.7682</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>18561</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>2.7682</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>21966</v>
@@ -11047,10 +11098,10 @@
         <v>6584</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>2.6121</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>17198</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>2.6121</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>20619</v>
@@ -11069,10 +11120,10 @@
         <v>6427</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>2.3341</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>15001</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>2.3341</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>18758</v>
@@ -11091,10 +11142,10 @@
         <v>6230</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>2.3482</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>14629</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>2.3482</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>17819</v>
@@ -11113,10 +11164,10 @@
         <v>6217</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>2.415</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>15014</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>2.415</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>14482</v>
@@ -11135,10 +11186,10 @@
         <v>6340</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>2.4513</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>15541</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>2.4513</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>14262</v>
@@ -11157,10 +11208,10 @@
         <v>6381</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>2.2023</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>14053</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>2.2023</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>11028</v>
@@ -11179,10 +11230,10 @@
         <v>6218</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>2.3885</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>14852</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>2.3885</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>10842</v>
@@ -11201,10 +11252,10 @@
         <v>6203</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>2.587</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>16047</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>2.587</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>9264</v>
@@ -11223,10 +11274,10 @@
         <v>5835</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>2.5719</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>15007</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>2.5719</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>9130</v>
@@ -11245,10 +11296,10 @@
         <v>5604</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>2.6344</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>14763</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>2.6344</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>11001</v>
@@ -11267,10 +11318,10 @@
         <v>5497</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>2.6214</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>14410</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>2.6214</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>10513</v>
@@ -11289,10 +11340,10 @@
         <v>5843</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>2.5499</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>14899</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>2.5499</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>11429</v>
@@ -11311,10 +11362,10 @@
         <v>5955</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>3.0403</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>18105</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>3.0403</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>11616</v>
@@ -11333,10 +11384,10 @@
         <v>5917</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>2.8636</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>16944</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>2.8636</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>12081</v>
@@ -11355,10 +11406,10 @@
         <v>6769</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>3.1824</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>21542</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>3.1824</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>12158</v>
@@ -11377,10 +11428,10 @@
         <v>6127</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>2.851</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>17468</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>2.851</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>12912</v>
@@ -11399,10 +11450,10 @@
         <v>5956</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>2.7005</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>16084</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>2.7005</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>10605</v>
@@ -11421,10 +11472,10 @@
         <v>5279</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>3.1275</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>16510</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>3.1275</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>9220</v>
@@ -11443,10 +11494,10 @@
         <v>6653</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>2.6684</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>17753</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>2.6684</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>8298</v>
@@ -11464,10 +11515,10 @@
         <v>6627</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>3.3941</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>22493</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>3.3941</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>9109</v>
@@ -11485,10 +11536,10 @@
         <v>6671</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>2.3984</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>16000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>2.3984</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>9801</v>
@@ -11506,10 +11557,10 @@
         <v>6817</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>3.1099</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>21200</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>3.1099</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>7393</v>
@@ -11527,10 +11578,10 @@
         <v>6413</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>2.916</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>18700</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>2.916</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>7168</v>
@@ -11548,10 +11599,10 @@
         <v>6536</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>2.4633</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>16100</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>2.4633</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>6999</v>
@@ -11569,10 +11620,10 @@
         <v>6195</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>2.6312</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>16300</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>2.6312</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>8715</v>
@@ -11908,7 +11959,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -11987,10 +12038,10 @@
         <v>7220</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>7.1856</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>51880</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>7.1856</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>3653.57</v>
@@ -12009,10 +12060,10 @@
         <v>7460</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>6.9102</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>51550</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>6.9102</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>4133.46</v>
@@ -12031,10 +12082,10 @@
         <v>7450</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>6.1369</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>45720</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>6.1369</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>5786.97</v>
@@ -12053,10 +12104,10 @@
         <v>7400</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>6.3568</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>47040</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>6.3568</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>3531.64</v>
@@ -12075,10 +12126,10 @@
         <v>7160</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>6.9707</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>49910</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>6.9707</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>4974.6</v>
@@ -12097,10 +12148,10 @@
         <v>6860</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>7.1429</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>49000</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>7.1429</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>4090.47</v>
@@ -12119,10 +12170,10 @@
         <v>6687</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>6.9417</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>46419</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>6.9417</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>4209.04</v>
@@ -12141,10 +12192,10 @@
         <v>6476</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>6.7506</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>43719</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>6.7506</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>3883.55</v>
@@ -12163,10 +12214,10 @@
         <v>6397</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>6.8868</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>44054.7</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>6.8868</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>5037.87</v>
@@ -12185,10 +12236,10 @@
         <v>6313</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>6.8679</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>43357</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>6.8679</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>4048.5</v>
@@ -12207,10 +12258,10 @@
         <v>5560</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>6.6885</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>37188</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>6.6885</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>3681</v>
@@ -12229,10 +12280,10 @@
         <v>6010</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>6.8226</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>41004</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>6.8226</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>4403</v>
@@ -12251,10 +12302,10 @@
         <v>5226</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>6.3188</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>33022</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>6.3188</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>5118</v>
@@ -12273,10 +12324,10 @@
         <v>6307</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>6.9721</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>43973</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>6.9721</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>4185</v>
@@ -12295,10 +12346,10 @@
         <v>6607</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>6.746899999999999</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>44577</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>6.746899999999999</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>4047</v>
@@ -12317,10 +12368,10 @@
         <v>5615</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>6.654100000000001</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>37363</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>6.654100000000001</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>4523</v>
@@ -12339,10 +12390,10 @@
         <v>6588</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>6.8613</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>45202</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>6.8613</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>4618</v>
@@ -12361,10 +12412,10 @@
         <v>6371</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>6.716399999999999</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>42790</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>6.716399999999999</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>5480</v>
@@ -12383,10 +12434,10 @@
         <v>6442</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>6.7519</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>43496</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>6.7519</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>4700</v>
@@ -12405,10 +12456,10 @@
         <v>6403</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>6.4232</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>41128</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>6.4232</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>3805</v>
@@ -12427,10 +12478,10 @@
         <v>6315</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>5.9245</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>37413</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>5.9245</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>5302</v>
@@ -12449,10 +12500,10 @@
         <v>6359</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>39235</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>6.17</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>3855</v>
@@ -12471,10 +12522,10 @@
         <v>6146</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>6.1829</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>38000</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>6.1829</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>5480</v>
@@ -12493,10 +12544,10 @@
         <v>5516</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>5.5279</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>30492</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>5.5279</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>4756</v>
@@ -12515,10 +12566,10 @@
         <v>5470</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>6.6885</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>36586</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>6.6885</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>3670</v>
@@ -12537,10 +12588,10 @@
         <v>6800</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>5.9118</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>40200</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>5.9118</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>3876</v>
@@ -12559,10 +12610,10 @@
         <v>6615</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>5.324</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>35218</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>5.324</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>4954</v>
@@ -12581,10 +12632,10 @@
         <v>6500</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>5.2308</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>34000</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>5.2308</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>2939</v>
@@ -12603,10 +12654,10 @@
         <v>6520</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>5.138</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>33500</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>5.138</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>3334</v>
@@ -12625,10 +12676,10 @@
         <v>5580</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>5.2038</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>29037</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>5.2038</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>4117</v>
@@ -12647,10 +12698,10 @@
         <v>5688</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>5.0454</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>28698</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>5.0454</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>3589</v>
@@ -12669,10 +12720,10 @@
         <v>5860</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>5.094</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>29851</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>5.094</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>4484</v>
@@ -12691,10 +12742,10 @@
         <v>5793</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>4.6349</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>26850</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>4.6349</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>4503</v>
@@ -12713,10 +12764,10 @@
         <v>6046</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>4.6943</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>28382</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>4.6943</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>5005</v>
@@ -12735,10 +12786,10 @@
         <v>5774</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>4.4718</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>25820</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>4.4718</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>3968</v>
@@ -12757,10 +12808,10 @@
         <v>6009</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>4.212</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>25310</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>4.212</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>4313</v>
@@ -12779,10 +12830,10 @@
         <v>5375</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>4.4837</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>24100</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>4.4837</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>2970</v>
@@ -12801,10 +12852,10 @@
         <v>5363</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>4.074199999999999</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>21850</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>4.074199999999999</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>1050</v>
@@ -12823,10 +12874,10 @@
         <v>5158</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>4.428100000000001</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>22840</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>4.428100000000001</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>1072</v>
@@ -12845,10 +12896,10 @@
         <v>5299</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>4.6688</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>24740</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>4.6688</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>475</v>
@@ -12867,10 +12918,10 @@
         <v>4931</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>5.1835</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>25560</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>5.1835</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>355</v>
@@ -12889,10 +12940,10 @@
         <v>5014</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>4.5812</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>22970</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>4.5812</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>229</v>
@@ -12911,10 +12962,10 @@
         <v>5617</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>5.243</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>29450</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>5.243</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>174</v>
@@ -12933,10 +12984,10 @@
         <v>5501</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>5.3263</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>29300</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>5.3263</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>219</v>
@@ -12955,10 +13006,10 @@
         <v>5332</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>5.5889</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>29800</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>5.5889</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>105</v>
@@ -12977,10 +13028,10 @@
         <v>5651</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>5.637899999999999</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>31860</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>5.637899999999999</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>144</v>
@@ -12999,10 +13050,10 @@
         <v>5611</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>5.7352</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>32180</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>5.7352</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>91</v>
@@ -13021,10 +13072,10 @@
         <v>6587</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>6.4491</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>42480</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>6.4491</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>163</v>
@@ -13043,10 +13094,10 @@
         <v>6602</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>6.5647</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>43340</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>6.5647</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>212</v>
@@ -13065,10 +13116,10 @@
         <v>6735</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>6.522600000000001</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>43930</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>6.522600000000001</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>194</v>
@@ -13087,10 +13138,10 @@
         <v>6664</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>6.1855</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>41220</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>6.1855</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>316</v>
@@ -13109,10 +13160,10 @@
         <v>7049</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>6.225</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>43880</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>6.225</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>135</v>
@@ -13131,10 +13182,10 @@
         <v>7495</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>6.5737</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>49270</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>6.5737</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>129</v>
@@ -13153,10 +13204,10 @@
         <v>7130</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>5.901800000000001</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>42080</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>5.901800000000001</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>113</v>
@@ -13175,10 +13226,10 @@
         <v>6935</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>6.126</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>42484</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>6.126</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>38</v>
@@ -13197,10 +13248,10 @@
         <v>6855</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>6.1707</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>42300</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>6.1707</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>38</v>
@@ -13219,10 +13270,10 @@
         <v>6426</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>5.757899999999999</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>37000</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>5.757899999999999</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>15</v>
@@ -13240,10 +13291,10 @@
         <v>5827</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>5.955</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>34700</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>5.955</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>26</v>
@@ -13261,10 +13312,10 @@
         <v>5724</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>5.5381</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>31700</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>5.5381</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>2</v>
@@ -13282,10 +13333,10 @@
         <v>5808</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>5.7352</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>33310</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>5.7352</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>1</v>
@@ -13303,10 +13354,10 @@
         <v>5200</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>6</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>31200</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>6</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>1</v>
@@ -13324,10 +13375,10 @@
         <v>5400</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>5.9815</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>32300</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>5.9815</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -13345,10 +13396,10 @@
         <v>5100</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>6.019600000000001</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>30700</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>6.019600000000001</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>

--- a/Resultados/Mercado mundial - Esparragos.xlsx
+++ b/Resultados/Mercado mundial - Esparragos.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="China, Continental" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Perú" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="México" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alemania" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Italia" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="China, mainland" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Peru" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Mexico" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Germany" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Italy" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -227,7 +227,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -307,6 +307,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -406,13 +407,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -432,10 +433,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -488,13 +489,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -514,10 +515,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -570,13 +571,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -596,10 +597,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -652,13 +653,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -678,21 +679,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países importadores'!$B$12:$B$23</f>
+              <f>'Países importadores'!$B$12:$B$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países importadores'!$C$12:$C$23</f>
+              <f>'Países importadores'!$C$12:$C$24</f>
             </numRef>
           </val>
         </ser>
@@ -734,13 +735,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -760,21 +761,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'China, Continental'!$B$12:$B$74</f>
+              <f>'China, mainland'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'China, Continental'!$C$12:$C$74</f>
+              <f>'China, mainland'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -816,13 +817,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -842,21 +843,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Perú'!$B$12:$B$74</f>
+              <f>'Peru'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Perú'!$C$12:$C$74</f>
+              <f>'Peru'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -898,13 +899,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -924,21 +925,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'México'!$B$12:$B$74</f>
+              <f>'Mexico'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'México'!$C$12:$C$74</f>
+              <f>'Mexico'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -980,13 +981,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1006,21 +1007,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Alemania'!$B$12:$B$74</f>
+              <f>'Germany'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Alemania'!$C$12:$C$74</f>
+              <f>'Germany'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1062,13 +1063,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1088,21 +1089,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Italia'!$B$12:$B$74</f>
+              <f>'Italy'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Italia'!$C$12:$C$74</f>
+              <f>'Italy'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1144,7 +1145,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1162,26 +1163,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1202,9 +1203,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1214,7 +1215,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1232,26 +1233,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1272,9 +1273,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1284,7 +1285,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1302,26 +1303,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1342,9 +1343,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1354,7 +1355,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1372,26 +1373,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1412,9 +1413,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1424,7 +1425,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1439,9 +1440,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1461,13 +1462,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1476,7 +1477,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1491,9 +1492,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1513,13 +1514,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1528,7 +1529,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1543,9 +1544,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1565,13 +1566,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1580,7 +1581,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1595,9 +1596,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1617,13 +1618,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1632,7 +1633,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1647,9 +1648,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1669,13 +1670,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2010,8 +2011,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2059,7 +2060,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2138,10 +2139,10 @@
         <v>1613070</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>8593799.26</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>5.3276</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>8593799.26</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>369693.99</v>
@@ -2160,10 +2161,10 @@
         <v>1606773</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>8657044.359999999</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>5.3878</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>8657044.359999999</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>417847.94</v>
@@ -2182,10 +2183,10 @@
         <v>1597782</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>8619775.210000001</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>5.3948</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>8619775.210000001</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>486889.88</v>
@@ -2204,10 +2205,10 @@
         <v>1581458</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>8546052.189999999</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>5.403899999999999</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>8546052.189999999</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>427104.49</v>
@@ -2226,10 +2227,10 @@
         <v>1559955</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>8655291.029999999</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>5.5484</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>8655291.029999999</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>437815.14</v>
@@ -2248,10 +2249,10 @@
         <v>1548927</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>8521289.380000001</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>5.501399999999999</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>8521289.380000001</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>433900.61</v>
@@ -2270,10 +2271,10 @@
         <v>1546068</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>8423167.34</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>5.4481</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>8423167.34</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>393303.63</v>
@@ -2292,10 +2293,10 @@
         <v>1562337</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>8266567.51</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>5.2912</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>8266567.51</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>373627.73</v>
@@ -2314,10 +2315,10 @@
         <v>1528606</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>8683909.210000001</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>5.680899999999999</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>8683909.210000001</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>352588.03</v>
@@ -2336,10 +2337,10 @@
         <v>1469188</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>7929445.74</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>5.3972</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>7929445.74</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>386779.41</v>
@@ -2358,10 +2359,10 @@
         <v>1463607</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>7935796.26</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>5.4221</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>7935796.26</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>336038</v>
@@ -2380,10 +2381,10 @@
         <v>1483527</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>8283095</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>5.583399999999999</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>8283095</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>350303</v>
@@ -2402,10 +2403,10 @@
         <v>1454758</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>8191163.66</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>5.6306</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>8191163.66</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>330363</v>
@@ -2424,10 +2425,10 @@
         <v>1426731</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>7487630.97</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>5.2481</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>7487630.97</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>322292</v>
@@ -2446,10 +2447,10 @@
         <v>1417284</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>7364717.59</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>5.1964</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>7364717.59</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>300490</v>
@@ -2468,10 +2469,10 @@
         <v>1412701</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>7216644.32</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>5.1084</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>7216644.32</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>298339</v>
@@ -2490,10 +2491,10 @@
         <v>1398248</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>7094036.33</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>5.0735</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>7094036.33</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>267917</v>
@@ -2512,10 +2513,10 @@
         <v>1349422</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>6932564.91</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>5.1374</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>6932564.91</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>260134</v>
@@ -2534,10 +2535,10 @@
         <v>1312750</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>6706236.9</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>5.1085</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>6706236.9</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>244329</v>
@@ -2556,10 +2557,10 @@
         <v>1306204</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>6621192.04</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>5.069</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>6621192.04</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>218435</v>
@@ -2578,10 +2579,10 @@
         <v>1231864</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>6271953.38</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>5.091399999999999</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>6271953.38</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>226116</v>
@@ -2600,10 +2601,10 @@
         <v>1198305</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>5751719.03</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>4.7999</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>5751719.03</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>220458</v>
@@ -2622,10 +2623,10 @@
         <v>1115810</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>4966941.74</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>4.4514</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>4966941.74</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>202458.05</v>
@@ -2644,10 +2645,10 @@
         <v>1064960</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>4640819.28</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>4.357699999999999</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>4640819.28</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>193131</v>
@@ -2666,10 +2667,10 @@
         <v>928753</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>3960944.41</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>4.2648</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>3960944.41</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>187525.16</v>
@@ -2688,10 +2689,10 @@
         <v>870236</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>3654790.74</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>4.1998</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>3654790.74</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>164043.42</v>
@@ -2710,10 +2711,10 @@
         <v>844491</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>3501494.53</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>4.1463</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>3501494.53</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>155195.98</v>
@@ -2732,10 +2733,10 @@
         <v>832584</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>3321796.34</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>3.9897</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>3321796.34</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>143601.01</v>
@@ -2754,10 +2755,10 @@
         <v>756810</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>3005813.03</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>3.9717</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>3005813.03</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>137999.02</v>
@@ -2776,10 +2777,10 @@
         <v>715397</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>2921779.89</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>4.0841</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>2921779.89</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>136893</v>
@@ -2798,10 +2799,10 @@
         <v>698132</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>2699509.54</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>3.8668</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>2699509.54</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>128050</v>
@@ -2820,10 +2821,10 @@
         <v>597171</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>2228651.58</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>3.732</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>2228651.58</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>116400</v>
@@ -2842,10 +2843,10 @@
         <v>620357</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>2139182.35</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>3.4483</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>2139182.35</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>104104</v>
@@ -2864,10 +2865,10 @@
         <v>580038</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>2012820</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>3.4702</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>2012820</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>92922</v>
@@ -2886,10 +2887,10 @@
         <v>545587</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>1837078</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>3.3672</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>1837078</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>86141</v>
@@ -2908,10 +2909,10 @@
         <v>509471</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>1758617</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>3.4518</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>1758617</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>79590</v>
@@ -2930,10 +2931,10 @@
         <v>494604</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>1733698</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>3.5052</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>1733698</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>61998</v>
@@ -2952,10 +2953,10 @@
         <v>462386</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>1592985</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>3.4451</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>1592985</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>48733</v>
@@ -2974,10 +2975,10 @@
         <v>421736</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>1486065</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>3.5237</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>1486065</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>47462</v>
@@ -2996,10 +2997,10 @@
         <v>419972</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>1435224</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>3.4174</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>1435224</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>35339</v>
@@ -3018,10 +3019,10 @@
         <v>410374</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>1395671</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>3.401</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>1395671</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>31011</v>
@@ -3040,10 +3041,10 @@
         <v>411460</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>1389783</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>3.3777</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>1389783</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>27091</v>
@@ -3062,10 +3063,10 @@
         <v>381131</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>1354656</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>3.5543</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>1354656</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>27039</v>
@@ -3084,10 +3085,10 @@
         <v>359086</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>1252898</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>3.4891</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>1252898</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>23617</v>
@@ -3106,10 +3107,10 @@
         <v>364866</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>1306260</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>3.5801</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>1306260</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>21874</v>
@@ -3128,10 +3129,10 @@
         <v>369709</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>1264951</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>3.4215</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>1264951</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>19458</v>
@@ -3150,10 +3151,10 @@
         <v>347258</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>1272569</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>3.6646</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>1272569</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>17842</v>
@@ -3172,10 +3173,10 @@
         <v>339821</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>1258216</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>3.7026</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>1258216</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>20381</v>
@@ -3194,10 +3195,10 @@
         <v>347258</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>1223169</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>3.5224</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>1223169</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>20695</v>
@@ -3216,10 +3217,10 @@
         <v>339701</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>1252871</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>3.6882</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>1252871</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>20900</v>
@@ -3238,10 +3239,10 @@
         <v>346903</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>1233105</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>3.5546</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>1233105</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>20978</v>
@@ -3260,10 +3261,10 @@
         <v>322568</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>1147798</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>3.5583</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>1147798</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>20866</v>
@@ -3282,10 +3283,10 @@
         <v>324828</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>1231942</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>3.7926</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>1231942</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>20184</v>
@@ -3304,10 +3305,10 @@
         <v>294013</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>1113572</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>3.7875</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>1113572</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>20588</v>
@@ -3326,10 +3327,10 @@
         <v>393344</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>1398664</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>3.5558</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>1398664</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>17502</v>
@@ -3348,10 +3349,10 @@
         <v>395218</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>1328756</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>3.3621</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>1328756</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>16499</v>
@@ -3370,10 +3371,10 @@
         <v>408340</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>1222070</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>2.9928</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>1222070</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>14626</v>
@@ -3391,10 +3392,10 @@
         <v>410685</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>1247071</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>3.0366</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>1247071</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>15996</v>
@@ -3412,10 +3413,10 @@
         <v>421702</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>1228842</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>2.914</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>1228842</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>15717</v>
@@ -3433,10 +3434,10 @@
         <v>419836</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>1207568</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>2.8763</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>1207568</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>13254</v>
@@ -3454,10 +3455,10 @@
         <v>445013</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>1291043</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>2.9011</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>1291043</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>12138</v>
@@ -3475,10 +3476,10 @@
         <v>496849</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>1379606</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>2.7767</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>1379606</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>12000</v>
@@ -3496,10 +3497,10 @@
         <v>640003</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>1695701</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>2.6495</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>1695701</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>13883</v>
@@ -3786,8 +3787,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3882,7 +3883,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>China, Continental</t>
+          <t>China, mainland</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -3896,7 +3897,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -3910,7 +3911,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -3924,7 +3925,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Alemania</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -3938,7 +3939,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Italia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3952,7 +3953,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -3966,7 +3967,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -3980,7 +3981,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Francia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -3994,7 +3995,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Japón</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4008,7 +4009,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Tailandia</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4116,7 +4117,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4215,7 +4216,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4229,7 +4230,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4243,7 +4244,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4257,7 +4258,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4271,7 +4272,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Países Bajos (Reino de los)</t>
+          <t>Netherlands (Kingdom of the)</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4285,7 +4286,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Italia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4299,7 +4300,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Grecia</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4313,7 +4314,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Francia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4327,7 +4328,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Alemania</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4341,7 +4342,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Canadá</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4537,8 +4538,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4633,7 +4634,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4647,7 +4648,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Alemania</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4661,7 +4662,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Canadá</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4675,7 +4676,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4689,7 +4690,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Reino Unido de Gran Bretaña e Irlanda del Norte</t>
+          <t>United Kingdom of Great Britain and Northern Ireland</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4703,7 +4704,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Francia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4717,7 +4718,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Países Bajos (Reino de los)</t>
+          <t>Netherlands (Kingdom of the)</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4731,7 +4732,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Suiza</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4745,7 +4746,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Bélgica</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4759,7 +4760,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Japón</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4773,35 +4774,43 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>38347.92999999999</v>
+        <v>284.3</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.1037288434145224</v>
+        <v>0.0007690143948512661</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="C23" s="29" t="n">
+        <v>38063.63</v>
+      </c>
+      <c r="D23" s="31" t="n">
+        <v>0.1029598290196711</v>
+      </c>
+      <c r="E23" s="29" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="29" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C23" s="29" t="n">
+      <c r="C24" s="29" t="n">
         <v>369693.99</v>
       </c>
-      <c r="D23" s="31" t="n">
+      <c r="D24" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="29" t="n"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="29" t="n"/>
-      <c r="C24" s="29" t="n"/>
-      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
     </row>
     <row r="25">
@@ -4811,58 +4820,59 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="15" t="n"/>
+      <c r="B26" s="29" t="n"/>
       <c r="C26" s="37" t="n"/>
-      <c r="D26" s="34" t="n"/>
+      <c r="D26" s="31" t="n"/>
+      <c r="E26" s="29" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="15" t="n"/>
-      <c r="C27" s="37" t="n"/>
+      <c r="C27" s="38" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="15" t="n"/>
-      <c r="C28" s="37" t="n"/>
+      <c r="C28" s="38" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="15" t="n"/>
-      <c r="C29" s="37" t="n"/>
+      <c r="C29" s="38" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="15" t="n"/>
-      <c r="C30" s="37" t="n"/>
+      <c r="C30" s="38" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="15" t="n"/>
-      <c r="C31" s="37" t="n"/>
+      <c r="C31" s="38" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="15" t="n"/>
-      <c r="C32" s="37" t="n"/>
+      <c r="C32" s="38" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="15" t="n"/>
-      <c r="C33" s="37" t="n"/>
+      <c r="C33" s="38" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="15" t="n"/>
-      <c r="C34" s="37" t="n"/>
+      <c r="C34" s="38" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="15" t="n"/>
-      <c r="C35" s="37" t="n"/>
+      <c r="C35" s="38" t="n"/>
       <c r="D35" s="36" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="15" t="n"/>
-      <c r="C36" s="37" t="n"/>
+      <c r="C36" s="38" t="n"/>
       <c r="D36" s="36" t="n"/>
     </row>
   </sheetData>
@@ -4932,7 +4942,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5011,10 +5021,10 @@
         <v>1462437</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>7438232.87</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>5.0862</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>7438232.87</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>13.22</v>
@@ -5033,10 +5043,10 @@
         <v>1452788</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>7462348.61</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>5.1366</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>7462348.61</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -5053,10 +5063,10 @@
         <v>1443072</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>7443307.73</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>5.158</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>7443307.73</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>4.8</v>
@@ -5075,10 +5085,10 @@
         <v>1427408</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>7409042.28</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>5.190600000000001</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>7409042.28</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>10.48</v>
@@ -5097,10 +5107,10 @@
         <v>1407103</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>7534695.82</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>5.3548</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>7534695.82</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>104.87</v>
@@ -5119,10 +5129,10 @@
         <v>1395438</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>7386185.09</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>5.293100000000001</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>7386185.09</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>91.67</v>
@@ -5141,10 +5151,10 @@
         <v>1396626</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>7306245.93</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>5.2314</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>7306245.93</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>11.79</v>
@@ -5163,10 +5173,10 @@
         <v>1418275</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>7202684.6</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>5.0785</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>7202684.6</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>15.85</v>
@@ -5185,10 +5195,10 @@
         <v>1390592</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>7665155.11</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>5.5122</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>7665155.11</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>11.76</v>
@@ -5207,10 +5217,10 @@
         <v>1335107</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>6942898.7</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>5.2003</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>6942898.7</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>2.38</v>
@@ -5229,10 +5239,10 @@
         <v>1330000</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>5.263199999999999</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>7000000</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>5</v>
@@ -5251,10 +5261,10 @@
         <v>1350000</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>7350000</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>5.4444</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>7350000</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>15</v>
@@ -5273,10 +5283,10 @@
         <v>1320000</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>7250000</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>5.4924</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>7250000</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>2</v>
@@ -5295,10 +5305,10 @@
         <v>1280000</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>6600000</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>5.1563</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>6600000</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>10</v>
@@ -5317,10 +5327,10 @@
         <v>1270000</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>6500000</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>5.1181</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>6500000</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>41</v>
@@ -5339,10 +5349,10 @@
         <v>1265000</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>6350000</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>5.0198</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>6350000</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>128</v>
@@ -5361,10 +5371,10 @@
         <v>1250000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>6250000</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>5</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>6250000</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>69</v>
@@ -5383,10 +5393,10 @@
         <v>1200000</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>6100000</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>5.0833</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>6100000</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>30</v>
@@ -5405,10 +5415,10 @@
         <v>1160000</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>5900000</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>5.0862</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>5900000</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -5427,10 +5437,10 @@
         <v>1150000</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>5800000</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>5.0435</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>5800000</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>0</v>
@@ -5449,10 +5459,10 @@
         <v>1080000</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>5.0926</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>5500000</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>9</v>
@@ -5471,10 +5481,10 @@
         <v>1040000</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>4.8077</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>5000000</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>0</v>
@@ -5493,10 +5503,10 @@
         <v>960000</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>4200000</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>4.375</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>4200000</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>1</v>
@@ -5515,10 +5525,10 @@
         <v>910000</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>3900000</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>4.285699999999999</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>3900000</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>0</v>
@@ -5537,10 +5547,10 @@
         <v>780000</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>3250000</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>4.1667</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>3250000</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="n">
@@ -5557,10 +5567,10 @@
         <v>725000</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>4.137899999999999</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>3000000</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="n">
@@ -5577,10 +5587,10 @@
         <v>700000</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>2850000</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>4.0714</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>2850000</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="n">
@@ -5597,10 +5607,10 @@
         <v>680000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>2700000</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>3.9706</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>2700000</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>1</v>
@@ -5619,10 +5629,10 @@
         <v>610000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>2400000</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>3.9344</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>2400000</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>2</v>
@@ -5641,10 +5651,10 @@
         <v>570000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>2300000</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>4.0351</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>2300000</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>2</v>
@@ -5663,10 +5673,10 @@
         <v>550000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>2100000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>3.8182</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>2100000</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>6</v>
@@ -5685,10 +5695,10 @@
         <v>450000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>1650000</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>3.6667</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>1650000</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>3</v>
@@ -5707,10 +5717,10 @@
         <v>470000</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>3.4043</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>1600000</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -5729,10 +5739,10 @@
         <v>430000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>1452000</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>3.3767</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>1452000</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -5751,10 +5761,10 @@
         <v>400000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>1320000</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>3.3</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>1320000</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -5773,10 +5783,10 @@
         <v>370000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>1290000</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>3.4865</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>1290000</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -5795,10 +5805,10 @@
         <v>360000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>1260000</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>3.5</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>1260000</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -5817,10 +5827,10 @@
         <v>330000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>1150000</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>3.4848</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>1150000</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -5839,10 +5849,10 @@
         <v>300000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>1056000</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>3.52</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>1056000</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -5861,10 +5871,10 @@
         <v>300000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>1050000</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>3.5</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>1050000</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -5883,10 +5893,10 @@
         <v>300000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>1048000</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>3.4933</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>1048000</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -5905,10 +5915,10 @@
         <v>300000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>1040000</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>3.4667</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>1040000</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -5927,10 +5937,10 @@
         <v>270000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>970000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>3.5926</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>970000</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -5949,10 +5959,10 @@
         <v>250000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>850000</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>3.4</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>850000</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -5971,10 +5981,10 @@
         <v>255000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>895000</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>3.5098</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>895000</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -5993,10 +6003,10 @@
         <v>260000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>865000</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>3.3269</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>865000</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -6015,10 +6025,10 @@
         <v>230000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>840000</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>3.6522</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>840000</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -6037,10 +6047,10 @@
         <v>220000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>810000</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>3.6818</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>810000</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -6059,10 +6069,10 @@
         <v>220000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>810000</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>3.6818</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>810000</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -6081,10 +6091,10 @@
         <v>210000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>775000</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>3.6905</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>775000</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -6103,10 +6113,10 @@
         <v>220000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>770000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>3.5</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>770000</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -6125,10 +6135,10 @@
         <v>195000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>690000</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>3.5385</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>690000</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -6147,10 +6157,10 @@
         <v>200000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>750000</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>3.75</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>750000</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -6169,10 +6179,10 @@
         <v>174000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>650000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>3.7356</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>650000</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -6191,10 +6201,10 @@
         <v>275000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>975000</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>3.5455</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>975000</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -6213,10 +6223,10 @@
         <v>275000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>905000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>3.2909</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>905000</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -6235,10 +6245,10 @@
         <v>280000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>840000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>3</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>840000</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -6256,10 +6266,10 @@
         <v>280000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>830000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>2.9643</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>830000</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -6277,10 +6287,10 @@
         <v>290000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>850000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>2.931</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>850000</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -6298,10 +6308,10 @@
         <v>290000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>810000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>2.7931</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>810000</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -6319,10 +6329,10 @@
         <v>320000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>905000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>2.8281</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>905000</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -6340,10 +6350,10 @@
         <v>375000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>1010000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>2.6933</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>1010000</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -6361,10 +6371,10 @@
         <v>520000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>1320000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>2.5385</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>1320000</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -6700,7 +6710,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6779,17 +6789,16 @@
         <v>29817</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>356728.51</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>11.964</v>
       </c>
-      <c r="E12" s="29" t="n">
-        <v>356728.51</v>
-      </c>
-      <c r="F12" s="29" t="n">
+      <c r="F12" s="29" t="inlineStr"/>
+      <c r="G12" s="29" t="n">
         <v>97874.75</v>
       </c>
-      <c r="G12" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H12" s="29" t="n"/>
       <c r="J12" s="30" t="n"/>
     </row>
     <row r="13">
@@ -6800,17 +6809,16 @@
         <v>32700</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>377246</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>11.5366</v>
       </c>
-      <c r="E13" s="29" t="n">
-        <v>377246</v>
-      </c>
-      <c r="F13" s="29" t="n">
+      <c r="F13" s="29" t="inlineStr"/>
+      <c r="G13" s="29" t="n">
         <v>127763.01</v>
       </c>
-      <c r="G13" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H13" s="29" t="n"/>
       <c r="J13" s="30" t="n"/>
     </row>
     <row r="14">
@@ -6821,17 +6829,16 @@
         <v>32027</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>369153</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>11.5263</v>
       </c>
-      <c r="E14" s="29" t="n">
-        <v>369153</v>
-      </c>
-      <c r="F14" s="29" t="n">
+      <c r="F14" s="29" t="inlineStr"/>
+      <c r="G14" s="29" t="n">
         <v>135732.73</v>
       </c>
-      <c r="G14" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H14" s="29" t="n"/>
       <c r="J14" s="30" t="n"/>
     </row>
     <row r="15">
@@ -6842,17 +6849,16 @@
         <v>33241</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>369370</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>11.1119</v>
       </c>
-      <c r="E15" s="29" t="n">
-        <v>369370</v>
-      </c>
-      <c r="F15" s="29" t="n">
+      <c r="F15" s="29" t="inlineStr"/>
+      <c r="G15" s="29" t="n">
         <v>125385.87</v>
       </c>
-      <c r="G15" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H15" s="29" t="n"/>
       <c r="J15" s="30" t="n"/>
     </row>
     <row r="16">
@@ -6863,17 +6869,16 @@
         <v>31700</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>356789.56</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>11.2551</v>
       </c>
-      <c r="E16" s="29" t="n">
-        <v>356789.56</v>
-      </c>
-      <c r="F16" s="29" t="n">
+      <c r="F16" s="29" t="inlineStr"/>
+      <c r="G16" s="29" t="n">
         <v>133875.74</v>
       </c>
-      <c r="G16" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H16" s="29" t="n"/>
       <c r="J16" s="30" t="n"/>
     </row>
     <row r="17">
@@ -6884,17 +6889,16 @@
         <v>31005</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>360630.14</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>11.6313</v>
       </c>
-      <c r="E17" s="29" t="n">
-        <v>360630.14</v>
-      </c>
-      <c r="F17" s="29" t="n">
+      <c r="F17" s="29" t="inlineStr"/>
+      <c r="G17" s="29" t="n">
         <v>132854.11</v>
       </c>
-      <c r="G17" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H17" s="29" t="n"/>
       <c r="J17" s="30" t="n"/>
     </row>
     <row r="18">
@@ -6905,17 +6909,16 @@
         <v>32365</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>383098</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>11.8368</v>
       </c>
-      <c r="E18" s="29" t="n">
-        <v>383098</v>
-      </c>
-      <c r="F18" s="29" t="n">
+      <c r="F18" s="29" t="inlineStr"/>
+      <c r="G18" s="29" t="n">
         <v>115427.41</v>
       </c>
-      <c r="G18" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H18" s="29" t="n"/>
       <c r="J18" s="30" t="n"/>
     </row>
     <row r="19">
@@ -6926,17 +6929,16 @@
         <v>31967</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>378305.79</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>11.8343</v>
       </c>
-      <c r="E19" s="29" t="n">
-        <v>378305.79</v>
-      </c>
-      <c r="F19" s="29" t="n">
+      <c r="F19" s="29" t="inlineStr"/>
+      <c r="G19" s="29" t="n">
         <v>123291.58</v>
       </c>
-      <c r="G19" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H19" s="29" t="n"/>
       <c r="J19" s="30" t="n"/>
     </row>
     <row r="20">
@@ -6947,17 +6949,16 @@
         <v>33870</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>369032</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>10.8955</v>
       </c>
-      <c r="E20" s="29" t="n">
-        <v>369032</v>
-      </c>
-      <c r="F20" s="29" t="n">
+      <c r="F20" s="29" t="inlineStr"/>
+      <c r="G20" s="29" t="n">
         <v>129331.88</v>
       </c>
-      <c r="G20" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H20" s="29" t="n"/>
       <c r="J20" s="30" t="n"/>
     </row>
     <row r="21">
@@ -6968,17 +6969,16 @@
         <v>31919</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>377701</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>11.8331</v>
       </c>
-      <c r="E21" s="29" t="n">
-        <v>377701</v>
-      </c>
-      <c r="F21" s="29" t="n">
+      <c r="F21" s="29" t="inlineStr"/>
+      <c r="G21" s="29" t="n">
         <v>133001.54</v>
       </c>
-      <c r="G21" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H21" s="29" t="n"/>
       <c r="J21" s="30" t="n"/>
     </row>
     <row r="22">
@@ -6989,17 +6989,16 @@
         <v>33673</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>383143.73</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>11.3784</v>
       </c>
-      <c r="E22" s="29" t="n">
-        <v>383143.73</v>
-      </c>
-      <c r="F22" s="29" t="n">
+      <c r="F22" s="29" t="inlineStr"/>
+      <c r="G22" s="29" t="n">
         <v>124462</v>
       </c>
-      <c r="G22" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H22" s="29" t="n"/>
       <c r="J22" s="30" t="n"/>
     </row>
     <row r="23">
@@ -7010,17 +7009,16 @@
         <v>33063</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>375977.71</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>11.3716</v>
       </c>
-      <c r="E23" s="29" t="n">
-        <v>375977.71</v>
-      </c>
-      <c r="F23" s="29" t="n">
+      <c r="F23" s="29" t="inlineStr"/>
+      <c r="G23" s="29" t="n">
         <v>118034</v>
       </c>
-      <c r="G23" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H23" s="29" t="n"/>
       <c r="J23" s="30" t="n"/>
     </row>
     <row r="24">
@@ -7031,17 +7029,16 @@
         <v>33144</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>392306</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>11.8364</v>
       </c>
-      <c r="E24" s="29" t="n">
-        <v>392306</v>
-      </c>
-      <c r="F24" s="29" t="n">
+      <c r="F24" s="29" t="inlineStr"/>
+      <c r="G24" s="29" t="n">
         <v>124504</v>
       </c>
-      <c r="G24" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H24" s="29" t="n"/>
       <c r="J24" s="30" t="n"/>
     </row>
     <row r="25">
@@ -7052,17 +7049,16 @@
         <v>30896</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>335209</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>10.8496</v>
       </c>
-      <c r="E25" s="29" t="n">
-        <v>335209</v>
-      </c>
-      <c r="F25" s="29" t="n">
+      <c r="F25" s="29" t="inlineStr"/>
+      <c r="G25" s="29" t="n">
         <v>123176</v>
       </c>
-      <c r="G25" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H25" s="29" t="n"/>
       <c r="J25" s="30" t="n"/>
     </row>
     <row r="26">
@@ -7073,17 +7069,16 @@
         <v>29467</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>313880</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>10.6519</v>
       </c>
-      <c r="E26" s="29" t="n">
-        <v>313880</v>
-      </c>
-      <c r="F26" s="29" t="n">
+      <c r="F26" s="29" t="inlineStr"/>
+      <c r="G26" s="29" t="n">
         <v>122131</v>
       </c>
-      <c r="G26" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H26" s="29" t="n"/>
       <c r="J26" s="30" t="n"/>
     </row>
     <row r="27">
@@ -7094,17 +7089,16 @@
         <v>29758</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>328374</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>11.0348</v>
       </c>
-      <c r="E27" s="29" t="n">
-        <v>328374</v>
-      </c>
-      <c r="F27" s="29" t="n">
+      <c r="F27" s="29" t="inlineStr"/>
+      <c r="G27" s="29" t="n">
         <v>109808</v>
       </c>
-      <c r="G27" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H27" s="29" t="n"/>
       <c r="J27" s="30" t="n"/>
     </row>
     <row r="28">
@@ -7115,17 +7109,16 @@
         <v>23547</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>284103</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>12.0654</v>
       </c>
-      <c r="E28" s="29" t="n">
-        <v>284103</v>
-      </c>
-      <c r="F28" s="29" t="n">
+      <c r="F28" s="29" t="inlineStr"/>
+      <c r="G28" s="29" t="n">
         <v>96329</v>
       </c>
-      <c r="G28" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H28" s="29" t="n"/>
       <c r="J28" s="30" t="n"/>
     </row>
     <row r="29">
@@ -7136,17 +7129,16 @@
         <v>20041</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>259954</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>12.9711</v>
       </c>
-      <c r="E29" s="29" t="n">
-        <v>259954</v>
-      </c>
-      <c r="F29" s="29" t="n">
+      <c r="F29" s="29" t="inlineStr"/>
+      <c r="G29" s="29" t="n">
         <v>92580</v>
       </c>
-      <c r="G29" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H29" s="29" t="n"/>
       <c r="J29" s="30" t="n"/>
     </row>
     <row r="30">
@@ -7157,17 +7149,16 @@
         <v>18192</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>206026</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>11.3251</v>
       </c>
-      <c r="E30" s="29" t="n">
-        <v>206026</v>
-      </c>
-      <c r="F30" s="29" t="n">
+      <c r="F30" s="29" t="inlineStr"/>
+      <c r="G30" s="29" t="n">
         <v>80021</v>
       </c>
-      <c r="G30" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H30" s="29" t="n"/>
       <c r="J30" s="30" t="n"/>
     </row>
     <row r="31">
@@ -7178,17 +7169,16 @@
         <v>18912</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>192533</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>10.1805</v>
       </c>
-      <c r="E31" s="29" t="n">
-        <v>192533</v>
-      </c>
-      <c r="F31" s="29" t="n">
+      <c r="F31" s="29" t="inlineStr"/>
+      <c r="G31" s="29" t="n">
         <v>72050</v>
       </c>
-      <c r="G31" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H31" s="29" t="n"/>
       <c r="J31" s="30" t="n"/>
     </row>
     <row r="32">
@@ -7199,17 +7189,16 @@
         <v>18470</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>189601</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>10.2653</v>
       </c>
-      <c r="E32" s="29" t="n">
-        <v>189601</v>
-      </c>
-      <c r="F32" s="29" t="n">
+      <c r="F32" s="29" t="inlineStr"/>
+      <c r="G32" s="29" t="n">
         <v>67089</v>
       </c>
-      <c r="G32" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H32" s="29" t="n"/>
       <c r="J32" s="30" t="n"/>
     </row>
     <row r="33">
@@ -7220,17 +7209,16 @@
         <v>18981</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>181165</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>9.544499999999999</v>
       </c>
-      <c r="E33" s="29" t="n">
-        <v>181165</v>
-      </c>
-      <c r="F33" s="29" t="n">
+      <c r="F33" s="29" t="inlineStr"/>
+      <c r="G33" s="29" t="n">
         <v>52784</v>
       </c>
-      <c r="G33" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H33" s="29" t="n"/>
       <c r="J33" s="30" t="n"/>
     </row>
     <row r="34">
@@ -7241,17 +7229,16 @@
         <v>19038</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>184061</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>9.668100000000001</v>
       </c>
-      <c r="E34" s="29" t="n">
-        <v>184061</v>
-      </c>
-      <c r="F34" s="29" t="n">
+      <c r="F34" s="29" t="inlineStr"/>
+      <c r="G34" s="29" t="n">
         <v>41611</v>
       </c>
-      <c r="G34" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H34" s="29" t="n"/>
       <c r="J34" s="30" t="n"/>
     </row>
     <row r="35">
@@ -7262,17 +7249,16 @@
         <v>20984</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>168356</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>8.023100000000001</v>
       </c>
-      <c r="E35" s="29" t="n">
-        <v>168356</v>
-      </c>
-      <c r="F35" s="29" t="n">
+      <c r="F35" s="29" t="inlineStr"/>
+      <c r="G35" s="29" t="n">
         <v>37008.73</v>
       </c>
-      <c r="G35" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H35" s="29" t="n"/>
       <c r="J35" s="30" t="n"/>
     </row>
     <row r="36">
@@ -7283,17 +7269,16 @@
         <v>18653</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>174863</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>9.374499999999999</v>
       </c>
-      <c r="E36" s="29" t="n">
-        <v>174863</v>
-      </c>
-      <c r="F36" s="29" t="n">
+      <c r="F36" s="29" t="inlineStr"/>
+      <c r="G36" s="29" t="n">
         <v>26982</v>
       </c>
-      <c r="G36" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H36" s="29" t="n"/>
       <c r="J36" s="30" t="n"/>
     </row>
     <row r="37">
@@ -7304,17 +7289,16 @@
         <v>15972</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>137943</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>8.6366</v>
       </c>
-      <c r="E37" s="29" t="n">
-        <v>137943</v>
-      </c>
-      <c r="F37" s="29" t="n">
+      <c r="F37" s="29" t="inlineStr"/>
+      <c r="G37" s="29" t="n">
         <v>19683</v>
       </c>
-      <c r="G37" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H37" s="29" t="n"/>
       <c r="J37" s="30" t="n"/>
     </row>
     <row r="38">
@@ -7325,17 +7309,16 @@
         <v>16619</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>144654</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>8.7041</v>
       </c>
-      <c r="E38" s="29" t="n">
-        <v>144654</v>
-      </c>
-      <c r="F38" s="29" t="n">
+      <c r="F38" s="29" t="inlineStr"/>
+      <c r="G38" s="29" t="n">
         <v>17824</v>
       </c>
-      <c r="G38" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H38" s="29" t="n"/>
       <c r="J38" s="30" t="n"/>
     </row>
     <row r="39">
@@ -7346,17 +7329,16 @@
         <v>22582</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>127598</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>5.650399999999999</v>
       </c>
-      <c r="E39" s="29" t="n">
-        <v>127598</v>
-      </c>
-      <c r="F39" s="29" t="n">
+      <c r="F39" s="29" t="inlineStr"/>
+      <c r="G39" s="29" t="n">
         <v>15511</v>
       </c>
-      <c r="G39" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H39" s="29" t="n"/>
       <c r="J39" s="30" t="n"/>
     </row>
     <row r="40">
@@ -7367,17 +7349,16 @@
         <v>20126</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>108138</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>5.373</v>
       </c>
-      <c r="E40" s="29" t="n">
-        <v>108138</v>
-      </c>
-      <c r="F40" s="29" t="n">
+      <c r="F40" s="29" t="inlineStr"/>
+      <c r="G40" s="29" t="n">
         <v>13270</v>
       </c>
-      <c r="G40" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H40" s="29" t="n"/>
       <c r="J40" s="30" t="n"/>
     </row>
     <row r="41">
@@ -7388,17 +7369,16 @@
         <v>17705</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>131387</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>7.4209</v>
       </c>
-      <c r="E41" s="29" t="n">
-        <v>131387</v>
-      </c>
-      <c r="F41" s="29" t="n">
+      <c r="F41" s="29" t="inlineStr"/>
+      <c r="G41" s="29" t="n">
         <v>11350</v>
       </c>
-      <c r="G41" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H41" s="29" t="n"/>
       <c r="J41" s="30" t="n"/>
     </row>
     <row r="42">
@@ -7409,17 +7389,16 @@
         <v>17671</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>97322</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>5.5074</v>
       </c>
-      <c r="E42" s="29" t="n">
-        <v>97322</v>
-      </c>
-      <c r="F42" s="29" t="n">
+      <c r="F42" s="29" t="inlineStr"/>
+      <c r="G42" s="29" t="n">
         <v>10919</v>
       </c>
-      <c r="G42" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H42" s="29" t="n"/>
       <c r="J42" s="30" t="n"/>
     </row>
     <row r="43">
@@ -7430,17 +7409,16 @@
         <v>12965</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>73676</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>5.6827</v>
       </c>
-      <c r="E43" s="29" t="n">
-        <v>73676</v>
-      </c>
-      <c r="F43" s="29" t="n">
+      <c r="F43" s="29" t="inlineStr"/>
+      <c r="G43" s="29" t="n">
         <v>6536</v>
       </c>
-      <c r="G43" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H43" s="29" t="n"/>
       <c r="J43" s="30" t="n"/>
     </row>
     <row r="44">
@@ -7451,17 +7429,16 @@
         <v>10706</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>64663</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>6.039899999999999</v>
       </c>
-      <c r="E44" s="29" t="n">
-        <v>64663</v>
-      </c>
-      <c r="F44" s="29" t="n">
+      <c r="F44" s="29" t="inlineStr"/>
+      <c r="G44" s="29" t="n">
         <v>4538</v>
       </c>
-      <c r="G44" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H44" s="29" t="n"/>
       <c r="J44" s="30" t="n"/>
     </row>
     <row r="45">
@@ -7472,17 +7449,16 @@
         <v>8997</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>57996</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>6.4461</v>
       </c>
-      <c r="E45" s="29" t="n">
-        <v>57996</v>
-      </c>
-      <c r="F45" s="29" t="n">
+      <c r="F45" s="29" t="inlineStr"/>
+      <c r="G45" s="29" t="n">
         <v>3378</v>
       </c>
-      <c r="G45" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H45" s="29" t="n"/>
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
@@ -7493,17 +7469,16 @@
         <v>8256</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>41904</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>5.075600000000001</v>
       </c>
-      <c r="E46" s="29" t="n">
-        <v>41904</v>
-      </c>
-      <c r="F46" s="29" t="n">
+      <c r="F46" s="29" t="inlineStr"/>
+      <c r="G46" s="29" t="n">
         <v>4358</v>
       </c>
-      <c r="G46" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H46" s="29" t="n"/>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
@@ -7514,17 +7489,16 @@
         <v>5938</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>26646</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>4.4874</v>
       </c>
-      <c r="E47" s="29" t="n">
-        <v>26646</v>
-      </c>
-      <c r="F47" s="29" t="n">
+      <c r="F47" s="29" t="inlineStr"/>
+      <c r="G47" s="29" t="n">
         <v>2771</v>
       </c>
-      <c r="G47" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H47" s="29" t="n"/>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
@@ -7535,17 +7509,16 @@
         <v>4802</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>20344</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>4.2366</v>
       </c>
-      <c r="E48" s="29" t="n">
-        <v>20344</v>
-      </c>
-      <c r="F48" s="29" t="n">
+      <c r="F48" s="29" t="inlineStr"/>
+      <c r="G48" s="29" t="n">
         <v>2116</v>
       </c>
-      <c r="G48" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H48" s="29" t="n"/>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
@@ -7556,17 +7529,16 @@
         <v>4119</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>16796</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>4.0777</v>
       </c>
-      <c r="E49" s="29" t="n">
-        <v>16796</v>
-      </c>
-      <c r="F49" s="29" t="n">
+      <c r="F49" s="29" t="inlineStr"/>
+      <c r="G49" s="29" t="n">
         <v>1747</v>
       </c>
-      <c r="G49" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H49" s="29" t="n"/>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
@@ -7577,17 +7549,16 @@
         <v>3108</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>16150</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>5.1963</v>
       </c>
-      <c r="E50" s="29" t="n">
-        <v>16150</v>
-      </c>
-      <c r="F50" s="29" t="n">
+      <c r="F50" s="29" t="inlineStr"/>
+      <c r="G50" s="29" t="n">
         <v>1680</v>
       </c>
-      <c r="G50" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H50" s="29" t="n"/>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
@@ -7598,17 +7569,16 @@
         <v>2497</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>11393</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>4.5627</v>
       </c>
-      <c r="E51" s="29" t="n">
-        <v>11393</v>
-      </c>
-      <c r="F51" s="29" t="n">
+      <c r="F51" s="29" t="inlineStr"/>
+      <c r="G51" s="29" t="n">
         <v>1185</v>
       </c>
-      <c r="G51" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H51" s="29" t="n"/>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
@@ -7619,17 +7589,16 @@
         <v>2443</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>8800</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>3.6021</v>
       </c>
-      <c r="E52" s="29" t="n">
-        <v>8800</v>
-      </c>
-      <c r="F52" s="29" t="n">
+      <c r="F52" s="29" t="inlineStr"/>
+      <c r="G52" s="29" t="n">
         <v>722</v>
       </c>
-      <c r="G52" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H52" s="29" t="n"/>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
@@ -7640,17 +7609,16 @@
         <v>2361</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>8292</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>3.5121</v>
       </c>
-      <c r="E53" s="29" t="n">
-        <v>8292</v>
-      </c>
-      <c r="F53" s="29" t="n">
+      <c r="F53" s="29" t="inlineStr"/>
+      <c r="G53" s="29" t="n">
         <v>862</v>
       </c>
-      <c r="G53" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H53" s="29" t="n"/>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
@@ -7661,17 +7629,16 @@
         <v>2351</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>7575</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>3.222</v>
       </c>
-      <c r="E54" s="29" t="n">
-        <v>7575</v>
-      </c>
-      <c r="F54" s="29" t="n">
+      <c r="F54" s="29" t="inlineStr"/>
+      <c r="G54" s="29" t="n">
         <v>788</v>
       </c>
-      <c r="G54" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H54" s="29" t="n"/>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
@@ -7682,17 +7649,16 @@
         <v>1512</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>4428</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>2.9286</v>
       </c>
-      <c r="E55" s="29" t="n">
-        <v>4428</v>
-      </c>
-      <c r="F55" s="29" t="n">
+      <c r="F55" s="29" t="inlineStr"/>
+      <c r="G55" s="29" t="n">
         <v>461</v>
       </c>
-      <c r="G55" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H55" s="29" t="n"/>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
@@ -7703,17 +7669,16 @@
         <v>1363</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>7079</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>5.1937</v>
       </c>
-      <c r="E56" s="29" t="n">
-        <v>7079</v>
-      </c>
-      <c r="F56" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="n">
         <v>0</v>
       </c>
+      <c r="H56" s="29" t="n"/>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
@@ -7724,17 +7689,16 @@
         <v>976</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>5466</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>5.6004</v>
       </c>
-      <c r="E57" s="29" t="n">
-        <v>5466</v>
-      </c>
-      <c r="F57" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="n">
         <v>0</v>
       </c>
+      <c r="H57" s="29" t="n"/>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
@@ -7745,17 +7709,16 @@
         <v>693</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>4171</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>6.018800000000001</v>
       </c>
-      <c r="E58" s="29" t="n">
-        <v>4171</v>
-      </c>
-      <c r="F58" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="n">
         <v>0</v>
       </c>
+      <c r="H58" s="29" t="n"/>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
@@ -7766,17 +7729,16 @@
         <v>465</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>2745</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>5.9032</v>
       </c>
-      <c r="E59" s="29" t="n">
-        <v>2745</v>
-      </c>
-      <c r="F59" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="n">
         <v>0</v>
       </c>
+      <c r="H59" s="29" t="n"/>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
@@ -7787,17 +7749,16 @@
         <v>460</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>2715</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>5.9022</v>
       </c>
-      <c r="E60" s="29" t="n">
-        <v>2715</v>
-      </c>
-      <c r="F60" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="n">
         <v>0</v>
       </c>
+      <c r="H60" s="29" t="n"/>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
@@ -7808,17 +7769,16 @@
         <v>430</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>2723</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>6.3326</v>
       </c>
-      <c r="E61" s="29" t="n">
-        <v>2723</v>
-      </c>
-      <c r="F61" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="n">
         <v>0</v>
       </c>
+      <c r="H61" s="29" t="n"/>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
@@ -7829,17 +7789,16 @@
         <v>410</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>2634</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>6.424399999999999</v>
       </c>
-      <c r="E62" s="29" t="n">
-        <v>2634</v>
-      </c>
-      <c r="F62" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="n">
         <v>0</v>
       </c>
+      <c r="H62" s="29" t="n"/>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
@@ -7850,17 +7809,16 @@
         <v>555</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>3133</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>5.645</v>
       </c>
-      <c r="E63" s="29" t="n">
-        <v>3133</v>
-      </c>
-      <c r="F63" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="n">
         <v>0</v>
       </c>
+      <c r="H63" s="29" t="n"/>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
@@ -7871,17 +7829,16 @@
         <v>570</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>2446</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>4.2912</v>
       </c>
-      <c r="E64" s="29" t="n">
-        <v>2446</v>
-      </c>
-      <c r="F64" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="n">
         <v>0</v>
       </c>
+      <c r="H64" s="29" t="n"/>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
@@ -7892,17 +7849,16 @@
         <v>820</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>4836</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>5.897600000000001</v>
       </c>
-      <c r="E65" s="29" t="n">
-        <v>4836</v>
-      </c>
-      <c r="F65" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="n">
         <v>0</v>
       </c>
+      <c r="H65" s="29" t="n"/>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
@@ -7913,17 +7869,16 @@
         <v>940</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>3930</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>4.180899999999999</v>
       </c>
-      <c r="E66" s="29" t="n">
-        <v>3930</v>
-      </c>
-      <c r="F66" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="n">
         <v>0</v>
       </c>
+      <c r="H66" s="29" t="n"/>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
@@ -7934,17 +7889,16 @@
         <v>955</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>4084</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>4.2764</v>
       </c>
-      <c r="E67" s="29" t="n">
-        <v>4084</v>
-      </c>
-      <c r="F67" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="n">
         <v>0</v>
       </c>
+      <c r="H67" s="29" t="n"/>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
@@ -7955,17 +7909,16 @@
         <v>1180</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>5635</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>4.775399999999999</v>
       </c>
-      <c r="E68" s="29" t="n">
-        <v>5635</v>
-      </c>
-      <c r="F68" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="n">
         <v>0</v>
       </c>
+      <c r="H68" s="29" t="n"/>
     </row>
     <row r="69">
       <c r="B69" s="28" t="n">
@@ -7975,17 +7928,16 @@
         <v>1195</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>5313</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>4.446</v>
       </c>
-      <c r="E69" s="29" t="n">
-        <v>5313</v>
-      </c>
-      <c r="F69" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="n">
         <v>0</v>
       </c>
+      <c r="H69" s="29" t="n"/>
     </row>
     <row r="70">
       <c r="B70" s="28" t="n">
@@ -7995,17 +7947,16 @@
         <v>1000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="E70" s="29" t="n">
-        <v>5000</v>
-      </c>
-      <c r="F70" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="n">
         <v>0</v>
       </c>
+      <c r="H70" s="29" t="n"/>
     </row>
     <row r="71">
       <c r="B71" s="28" t="n">
@@ -8015,17 +7966,16 @@
         <v>1000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="E71" s="29" t="n">
-        <v>5000</v>
-      </c>
-      <c r="F71" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="n">
         <v>0</v>
       </c>
+      <c r="H71" s="29" t="n"/>
     </row>
     <row r="72">
       <c r="B72" s="28" t="n">
@@ -8035,17 +7985,16 @@
         <v>1000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="E72" s="29" t="n">
-        <v>5000</v>
-      </c>
-      <c r="F72" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="n">
         <v>0</v>
       </c>
+      <c r="H72" s="29" t="n"/>
     </row>
     <row r="73">
       <c r="B73" s="28" t="n">
@@ -8055,17 +8004,16 @@
         <v>1000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="E73" s="29" t="n">
-        <v>5000</v>
-      </c>
-      <c r="F73" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="n">
         <v>0</v>
       </c>
+      <c r="H73" s="29" t="n"/>
     </row>
     <row r="74">
       <c r="B74" s="28" t="n">
@@ -8075,17 +8023,16 @@
         <v>1000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="E74" s="29" t="n">
-        <v>5000</v>
-      </c>
-      <c r="F74" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="n">
         <v>0</v>
       </c>
+      <c r="H74" s="29" t="n"/>
     </row>
     <row r="75">
       <c r="B75" s="29" t="n"/>
@@ -8094,6 +8041,7 @@
       <c r="E75" s="29" t="n"/>
       <c r="F75" s="29" t="n"/>
       <c r="G75" s="29" t="n"/>
+      <c r="H75" s="29" t="n"/>
     </row>
     <row r="76">
       <c r="B76" s="29" t="n"/>
@@ -8102,6 +8050,7 @@
       <c r="E76" s="29" t="n"/>
       <c r="F76" s="29" t="n"/>
       <c r="G76" s="29" t="n"/>
+      <c r="H76" s="29" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>
@@ -8411,7 +8360,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8490,10 +8439,10 @@
         <v>37218</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>347291.22</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>9.331299999999999</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>347291.22</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>284.3</v>
@@ -8512,10 +8461,10 @@
         <v>35940</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>357839.33</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>9.9566</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>357839.33</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -8532,10 +8481,10 @@
         <v>34889</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>328990.33</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>9.4297</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>328990.33</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>152.64</v>
@@ -8554,10 +8503,10 @@
         <v>31940</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>300575.12</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>9.410600000000001</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>300575.12</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -8574,10 +8523,10 @@
         <v>30842</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>272201.57</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>8.825799999999999</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>272201.57</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>653.11</v>
@@ -8596,10 +8545,10 @@
         <v>30792</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>277682.48</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>9.0181</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>277682.48</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>751.8099999999999</v>
@@ -8618,10 +8567,10 @@
         <v>26139</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>245681.46</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>9.399100000000001</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>245681.46</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>561.77</v>
@@ -8640,10 +8589,10 @@
         <v>24791</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>216871.01</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>8.7478</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>216871.01</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>687.91</v>
@@ -8662,10 +8611,10 @@
         <v>22232</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>198075.04</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>8.909700000000001</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>198075.04</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>507.47</v>
@@ -8684,10 +8633,10 @@
         <v>20438</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>170224.55</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>8.328799999999999</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>170224.55</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>597.76</v>
@@ -8706,10 +8655,10 @@
         <v>17829</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>126421</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>7.0908</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>126421</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>484</v>
@@ -8728,10 +8677,10 @@
         <v>16233</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>119789</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>7.3794</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>119789</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>410</v>
@@ -8750,10 +8699,10 @@
         <v>16686</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>104569.07</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>6.2669</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>104569.07</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>613</v>
@@ -8772,10 +8721,10 @@
         <v>16436</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>89769.42</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>5.4619</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>89769.42</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>577</v>
@@ -8794,10 +8743,10 @@
         <v>17000</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>73000</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>4.2941</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>73000</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>449</v>
@@ -8816,10 +8765,10 @@
         <v>15800</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>68000</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>4.3038</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>68000</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>413</v>
@@ -8838,10 +8787,10 @@
         <v>13900</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>60000</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>4.3165</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>60000</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>442</v>
@@ -8860,10 +8809,10 @@
         <v>14260</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>59621</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>4.181</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>59621</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>545</v>
@@ -8882,10 +8831,10 @@
         <v>13895</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>60000</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>4.3181</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>60000</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>408</v>
@@ -8904,10 +8853,10 @@
         <v>13520</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>59384</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>4.392300000000001</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>59384</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>261</v>
@@ -8926,10 +8875,10 @@
         <v>14240</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>61064</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>4.2882</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>61064</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>232</v>
@@ -8948,10 +8897,10 @@
         <v>14523</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>58135</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>4.003</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>58135</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>339</v>
@@ -8970,10 +8919,10 @@
         <v>14582</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>64538</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>4.4259</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>64538</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>452</v>
@@ -8992,10 +8941,10 @@
         <v>13408</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>50441</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>3.762</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>50441</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>522.58</v>
@@ -9014,10 +8963,10 @@
         <v>12740</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>52296</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>4.1049</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>52296</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>127</v>
@@ -9036,10 +8985,10 @@
         <v>13070</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>41240</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>3.1553</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>41240</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>114</v>
@@ -9058,10 +9007,10 @@
         <v>11484</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>37980</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>3.3072</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>37980</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>63</v>
@@ -9080,10 +9029,10 @@
         <v>9409</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>28210</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>2.9982</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>28210</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>42</v>
@@ -9102,10 +9051,10 @@
         <v>9552</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>34612</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>3.6235</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>34612</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>49</v>
@@ -9124,10 +9073,10 @@
         <v>9585</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>35540</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>3.7079</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>35540</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>43</v>
@@ -9146,10 +9095,10 @@
         <v>10103</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>32470</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>3.2139</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>32470</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>94</v>
@@ -9168,10 +9117,10 @@
         <v>9978</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>38532</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>3.8617</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>38532</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>56</v>
@@ -9190,10 +9139,10 @@
         <v>9166</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>37441</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>4.0848</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>37441</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>131</v>
@@ -9212,10 +9161,10 @@
         <v>9980</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>43219</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>4.3306</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>43219</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>609</v>
@@ -9234,10 +9183,10 @@
         <v>6267</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>28100</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>4.4838</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>28100</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>29</v>
@@ -9256,10 +9205,10 @@
         <v>5129</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>26864</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>5.2377</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>26864</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>10</v>
@@ -9278,10 +9227,10 @@
         <v>6048</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>35989</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>5.950600000000001</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>35989</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -9300,10 +9249,10 @@
         <v>5858</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>27991</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>4.7783</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>27991</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -9322,10 +9271,10 @@
         <v>5124</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>24616</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>4.8041</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>24616</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -9344,10 +9293,10 @@
         <v>5320</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>18003</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>3.384</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>18003</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -9366,10 +9315,10 @@
         <v>3106</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>12064</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>3.8841</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>12064</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -9388,10 +9337,10 @@
         <v>4287</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>21008</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>4.900399999999999</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>21008</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -9410,10 +9359,10 @@
         <v>4573</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>21632</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>4.730399999999999</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>21632</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -9432,10 +9381,10 @@
         <v>4174</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>19685</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>4.7161</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>19685</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -9454,10 +9403,10 @@
         <v>4002</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>20544</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>5.1334</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>20544</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -9476,10 +9425,10 @@
         <v>4273</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>26813</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>6.275</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>26813</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -9498,10 +9447,10 @@
         <v>10386</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>47606</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>4.583699999999999</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>47606</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -9520,10 +9469,10 @@
         <v>9226</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>39541</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>4.2858</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>39541</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -9542,10 +9491,10 @@
         <v>7360</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>34299</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>4.6602</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>34299</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -9564,10 +9513,10 @@
         <v>6000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>28000</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>4.6667</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>28000</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -9586,10 +9535,10 @@
         <v>4500</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>21000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>4.6667</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>21000</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -9608,10 +9557,10 @@
         <v>3000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>4</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>12000</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -9630,10 +9579,10 @@
         <v>1518</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>6654</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>4.3834</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>6654</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -9652,10 +9601,10 @@
         <v>1500</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>6500</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>4.3333</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>6500</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -9674,10 +9623,10 @@
         <v>1450</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>4.137899999999999</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>6000</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -9696,10 +9645,10 @@
         <v>1400</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>5500</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>3.9286</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>5500</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -9718,10 +9667,10 @@
         <v>1400</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>5300</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>3.7857</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>5300</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -9739,10 +9688,10 @@
         <v>1400</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>5200</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>3.7143</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>5200</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -9760,10 +9709,10 @@
         <v>1350</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>5100</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>3.7778</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>5100</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -9781,10 +9730,10 @@
         <v>1350</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>5100</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>3.7778</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>5100</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -9802,10 +9751,10 @@
         <v>1350</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>3.7037</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>5000</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -9823,10 +9772,10 @@
         <v>1300</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>3.8462</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>5000</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -9844,10 +9793,10 @@
         <v>1300</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>3.8462</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>5000</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -10183,7 +10132,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -10262,10 +10211,10 @@
         <v>20370</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>111900</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>5.493399999999999</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>111900</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>19392.64</v>
@@ -10284,10 +10233,10 @@
         <v>21270</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>110300</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>5.1857</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>110300</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>19603.83</v>
@@ -10306,10 +10255,10 @@
         <v>22280</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>119270</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>5.3532</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>119270</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>27276.11</v>
@@ -10328,10 +10277,10 @@
         <v>22410</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>117560</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>5.2459</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>117560</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>22753.84</v>
@@ -10350,10 +10299,10 @@
         <v>22980</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>130560</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>5.6815</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>130560</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>24080.92</v>
@@ -10372,10 +10321,10 @@
         <v>23410</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>133020</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>5.6822</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>133020</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>24803.56</v>
@@ -10394,10 +10343,10 @@
         <v>23190</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>130881</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>5.643899999999999</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>130881</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>25140.11</v>
@@ -10416,10 +10365,10 @@
         <v>22274</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>120014</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>5.388100000000001</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>120014</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>24484.15</v>
@@ -10438,10 +10387,10 @@
         <v>20594</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>113613.3</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>5.5168</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>113613.3</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>23577.62</v>
@@ -10460,10 +10409,10 @@
         <v>20122</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>114090</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>5.669899999999999</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>114090</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>26061.6</v>
@@ -10482,10 +10431,10 @@
         <v>19634</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>103107</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>5.2515</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>103107</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>23696</v>
@@ -10504,10 +10453,10 @@
         <v>19329</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>102395</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>5.2975</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>102395</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>26409</v>
@@ -10526,10 +10475,10 @@
         <v>18611</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>103457</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>5.5589</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>103457</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>24925</v>
@@ -10548,10 +10497,10 @@
         <v>18794</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>92404</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>4.9167</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>92404</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>24437</v>
@@ -10570,10 +10519,10 @@
         <v>18190</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>98193</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>5.3982</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>98193</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>22591</v>
@@ -10592,10 +10541,10 @@
         <v>18436</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>92653</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>5.0257</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>92653</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>26954</v>
@@ -10614,10 +10563,10 @@
         <v>18610</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>94285</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>5.0664</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>94285</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>23606</v>
@@ -10636,10 +10585,10 @@
         <v>18408</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>81984</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>4.4537</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>81984</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>25812</v>
@@ -10658,10 +10607,10 @@
         <v>18117</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>82758</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>4.568</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>82758</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>24731</v>
@@ -10680,10 +10629,10 @@
         <v>16744</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>72516</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>4.3309</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>72516</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>25932</v>
@@ -10702,10 +10651,10 @@
         <v>15106</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>65337</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>4.3252</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>65337</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>29252</v>
@@ -10724,10 +10673,10 @@
         <v>14222</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>57196</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>4.0217</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>57196</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>36432</v>
@@ -10746,10 +10695,10 @@
         <v>12904</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>52246</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>4.0488</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>52246</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>35996</v>
@@ -10768,10 +10717,10 @@
         <v>11597</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>50795</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>4.38</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>50795</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>30720</v>
@@ -10790,10 +10739,10 @@
         <v>11429</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>45188</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>3.9538</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>45188</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>40214</v>
@@ -10812,10 +10761,10 @@
         <v>11261</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>45513</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>4.0416</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>45513</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>42310</v>
@@ -10834,10 +10783,10 @@
         <v>10901</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>40811</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>3.7438</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>40811</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>39545</v>
@@ -10856,10 +10805,10 @@
         <v>10503</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>36711</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>3.4953</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>36711</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>42711</v>
@@ -10878,10 +10827,10 @@
         <v>9137</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>31820</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>3.4825</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>31820</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>38816</v>
@@ -10900,10 +10849,10 @@
         <v>8250</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>27256</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>3.3038</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>27256</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>42961</v>
@@ -10922,10 +10871,10 @@
         <v>8063</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>29794</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>3.6952</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>29794</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>37903</v>
@@ -10944,10 +10893,10 @@
         <v>7524</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>28392</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>3.7735</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>28392</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>38027</v>
@@ -10966,10 +10915,10 @@
         <v>6253</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>15477</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>2.4751</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>15477</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>33825</v>
@@ -10988,10 +10937,10 @@
         <v>7971</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>22009</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>2.7611</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>22009</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>29565</v>
@@ -11010,10 +10959,10 @@
         <v>8271</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>21102</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>2.5513</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>21102</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>30123</v>
@@ -11032,10 +10981,10 @@
         <v>7985</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>19719</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>2.4695</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>19719</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>26326</v>
@@ -11054,10 +11003,10 @@
         <v>6614</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>14696</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>2.222</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>14696</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>26301</v>
@@ -11076,10 +11025,10 @@
         <v>6705</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>18561</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>2.7682</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>18561</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>21966</v>
@@ -11098,10 +11047,10 @@
         <v>6584</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>17198</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>2.6121</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>17198</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>20619</v>
@@ -11120,10 +11069,10 @@
         <v>6427</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>15001</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>2.3341</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>15001</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>18758</v>
@@ -11142,10 +11091,10 @@
         <v>6230</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>14629</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>2.3482</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>14629</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>17819</v>
@@ -11164,10 +11113,10 @@
         <v>6217</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>15014</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>2.415</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>15014</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>14482</v>
@@ -11186,10 +11135,10 @@
         <v>6340</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>15541</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>2.4513</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>15541</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>14262</v>
@@ -11208,10 +11157,10 @@
         <v>6381</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>14053</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>2.2023</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>14053</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>11028</v>
@@ -11230,10 +11179,10 @@
         <v>6218</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>14852</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>2.3885</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>14852</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>10842</v>
@@ -11252,10 +11201,10 @@
         <v>6203</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>16047</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>2.587</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>16047</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>9264</v>
@@ -11274,10 +11223,10 @@
         <v>5835</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>15007</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>2.5719</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>15007</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>9130</v>
@@ -11296,10 +11245,10 @@
         <v>5604</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>14763</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>2.6344</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>14763</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>11001</v>
@@ -11318,10 +11267,10 @@
         <v>5497</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>14410</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>2.6214</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>14410</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>10513</v>
@@ -11340,10 +11289,10 @@
         <v>5843</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>14899</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>2.5499</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>14899</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>11429</v>
@@ -11362,10 +11311,10 @@
         <v>5955</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>18105</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>3.0403</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>18105</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>11616</v>
@@ -11384,10 +11333,10 @@
         <v>5917</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>16944</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>2.8636</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>16944</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>12081</v>
@@ -11406,10 +11355,10 @@
         <v>6769</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>21542</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>3.1824</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>21542</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>12158</v>
@@ -11428,10 +11377,10 @@
         <v>6127</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>17468</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>2.851</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>17468</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>12912</v>
@@ -11450,10 +11399,10 @@
         <v>5956</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>16084</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>2.7005</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>16084</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>10605</v>
@@ -11472,10 +11421,10 @@
         <v>5279</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>16510</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>3.1275</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>16510</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>9220</v>
@@ -11494,10 +11443,10 @@
         <v>6653</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>17753</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>2.6684</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>17753</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>8298</v>
@@ -11515,10 +11464,10 @@
         <v>6627</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>22493</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>3.3941</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>22493</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>9109</v>
@@ -11536,10 +11485,10 @@
         <v>6671</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>16000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>2.3984</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>16000</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>9801</v>
@@ -11557,10 +11506,10 @@
         <v>6817</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>21200</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>3.1099</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>21200</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>7393</v>
@@ -11578,10 +11527,10 @@
         <v>6413</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>18700</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>2.916</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>18700</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>7168</v>
@@ -11599,10 +11548,10 @@
         <v>6536</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>16100</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>2.4633</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>16100</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>6999</v>
@@ -11620,10 +11569,10 @@
         <v>6195</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>16300</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>2.6312</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>16300</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>8715</v>
@@ -11959,7 +11908,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -12038,10 +11987,10 @@
         <v>7220</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>51880</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>7.1856</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>51880</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>3653.57</v>
@@ -12060,10 +12009,10 @@
         <v>7460</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>51550</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>6.9102</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>51550</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>4133.46</v>
@@ -12082,10 +12031,10 @@
         <v>7450</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>45720</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>6.1369</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>45720</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>5786.97</v>
@@ -12104,10 +12053,10 @@
         <v>7400</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>47040</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>6.3568</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>47040</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>3531.64</v>
@@ -12126,10 +12075,10 @@
         <v>7160</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>49910</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>6.9707</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>49910</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>4974.6</v>
@@ -12148,10 +12097,10 @@
         <v>6860</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>49000</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>7.1429</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>49000</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>4090.47</v>
@@ -12170,10 +12119,10 @@
         <v>6687</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>46419</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>6.9417</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>46419</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>4209.04</v>
@@ -12192,10 +12141,10 @@
         <v>6476</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>43719</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>6.7506</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>43719</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>3883.55</v>
@@ -12214,10 +12163,10 @@
         <v>6397</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>44054.7</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>6.8868</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>44054.7</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>5037.87</v>
@@ -12236,10 +12185,10 @@
         <v>6313</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>43357</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>6.8679</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>43357</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>4048.5</v>
@@ -12258,10 +12207,10 @@
         <v>5560</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>37188</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>6.6885</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>37188</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>3681</v>
@@ -12280,10 +12229,10 @@
         <v>6010</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>41004</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>6.8226</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>41004</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>4403</v>
@@ -12302,10 +12251,10 @@
         <v>5226</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>33022</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>6.3188</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>33022</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>5118</v>
@@ -12324,10 +12273,10 @@
         <v>6307</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>43973</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>6.9721</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>43973</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>4185</v>
@@ -12346,10 +12295,10 @@
         <v>6607</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>44577</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>6.746899999999999</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>44577</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>4047</v>
@@ -12368,10 +12317,10 @@
         <v>5615</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>37363</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>6.654100000000001</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>37363</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>4523</v>
@@ -12390,10 +12339,10 @@
         <v>6588</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>45202</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>6.8613</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>45202</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>4618</v>
@@ -12412,10 +12361,10 @@
         <v>6371</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>42790</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>6.716399999999999</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>42790</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>5480</v>
@@ -12434,10 +12383,10 @@
         <v>6442</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>43496</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>6.7519</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>43496</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>4700</v>
@@ -12456,10 +12405,10 @@
         <v>6403</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>41128</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>6.4232</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>41128</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>3805</v>
@@ -12478,10 +12427,10 @@
         <v>6315</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>37413</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>5.9245</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>37413</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>5302</v>
@@ -12500,10 +12449,10 @@
         <v>6359</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>39235</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>6.17</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>39235</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>3855</v>
@@ -12522,10 +12471,10 @@
         <v>6146</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>38000</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>6.1829</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>38000</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>5480</v>
@@ -12544,10 +12493,10 @@
         <v>5516</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>30492</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>5.5279</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>30492</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>4756</v>
@@ -12566,10 +12515,10 @@
         <v>5470</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>36586</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>6.6885</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>36586</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>3670</v>
@@ -12588,10 +12537,10 @@
         <v>6800</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>40200</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>5.9118</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>40200</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>3876</v>
@@ -12610,10 +12559,10 @@
         <v>6615</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>35218</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>5.324</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>35218</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>4954</v>
@@ -12632,10 +12581,10 @@
         <v>6500</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>34000</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>5.2308</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>34000</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>2939</v>
@@ -12654,10 +12603,10 @@
         <v>6520</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>33500</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>5.138</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>33500</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>3334</v>
@@ -12676,10 +12625,10 @@
         <v>5580</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>29037</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>5.2038</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>29037</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>4117</v>
@@ -12698,10 +12647,10 @@
         <v>5688</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>28698</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>5.0454</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>28698</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>3589</v>
@@ -12720,10 +12669,10 @@
         <v>5860</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>29851</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>5.094</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>29851</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>4484</v>
@@ -12742,10 +12691,10 @@
         <v>5793</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>26850</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>4.6349</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>26850</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>4503</v>
@@ -12764,10 +12713,10 @@
         <v>6046</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>28382</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>4.6943</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>28382</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>5005</v>
@@ -12786,10 +12735,10 @@
         <v>5774</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>25820</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>4.4718</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>25820</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>3968</v>
@@ -12808,10 +12757,10 @@
         <v>6009</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>25310</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>4.212</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>25310</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>4313</v>
@@ -12830,10 +12779,10 @@
         <v>5375</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>24100</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>4.4837</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>24100</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>2970</v>
@@ -12852,10 +12801,10 @@
         <v>5363</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>21850</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>4.074199999999999</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>21850</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>1050</v>
@@ -12874,10 +12823,10 @@
         <v>5158</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>22840</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>4.428100000000001</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>22840</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>1072</v>
@@ -12896,10 +12845,10 @@
         <v>5299</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>24740</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>4.6688</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>24740</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>475</v>
@@ -12918,10 +12867,10 @@
         <v>4931</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>25560</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>5.1835</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>25560</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>355</v>
@@ -12940,10 +12889,10 @@
         <v>5014</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>22970</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>4.5812</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>22970</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>229</v>
@@ -12962,10 +12911,10 @@
         <v>5617</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>29450</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>5.243</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>29450</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>174</v>
@@ -12984,10 +12933,10 @@
         <v>5501</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>29300</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>5.3263</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>29300</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>219</v>
@@ -13006,10 +12955,10 @@
         <v>5332</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>29800</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>5.5889</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>29800</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>105</v>
@@ -13028,10 +12977,10 @@
         <v>5651</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>31860</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>5.637899999999999</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>31860</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>144</v>
@@ -13050,10 +12999,10 @@
         <v>5611</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>32180</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>5.7352</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>32180</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>91</v>
@@ -13072,10 +13021,10 @@
         <v>6587</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>42480</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>6.4491</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>42480</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>163</v>
@@ -13094,10 +13043,10 @@
         <v>6602</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>43340</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>6.5647</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>43340</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>212</v>
@@ -13116,10 +13065,10 @@
         <v>6735</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>43930</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>6.522600000000001</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>43930</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>194</v>
@@ -13138,10 +13087,10 @@
         <v>6664</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>41220</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>6.1855</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>41220</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>316</v>
@@ -13160,10 +13109,10 @@
         <v>7049</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>43880</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>6.225</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>43880</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>135</v>
@@ -13182,10 +13131,10 @@
         <v>7495</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>49270</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>6.5737</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>49270</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>129</v>
@@ -13204,10 +13153,10 @@
         <v>7130</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>42080</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>5.901800000000001</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>42080</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>113</v>
@@ -13226,10 +13175,10 @@
         <v>6935</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>42484</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>6.126</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>42484</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>38</v>
@@ -13248,10 +13197,10 @@
         <v>6855</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>42300</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>6.1707</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>42300</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>38</v>
@@ -13270,10 +13219,10 @@
         <v>6426</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>37000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>5.757899999999999</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>37000</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>15</v>
@@ -13291,10 +13240,10 @@
         <v>5827</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>34700</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>5.955</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>34700</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>26</v>
@@ -13312,10 +13261,10 @@
         <v>5724</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>31700</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>5.5381</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>31700</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>2</v>
@@ -13333,10 +13282,10 @@
         <v>5808</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>33310</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>5.7352</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>33310</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>1</v>
@@ -13354,10 +13303,10 @@
         <v>5200</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>31200</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>6</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>31200</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>1</v>
@@ -13375,10 +13324,10 @@
         <v>5400</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>32300</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>5.9815</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>32300</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -13396,10 +13345,10 @@
         <v>5100</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>30700</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>6.019600000000001</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>30700</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
